--- a/INTLINE/data/193/ABS/56760011.xlsx
+++ b/INTLINE/data/193/ABS/56760011.xlsx
@@ -12,152 +12,152 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A3530943T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$120</definedName>
-    <definedName name="A3530943T_Data">Data1!$Y$11:$Y$120</definedName>
-    <definedName name="A3530943T_Latest">Data1!$Y$120</definedName>
-    <definedName name="A3530947A">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$120</definedName>
-    <definedName name="A3530947A_Data">Data1!$AO$11:$AO$120</definedName>
-    <definedName name="A3530947A_Latest">Data1!$AO$120</definedName>
-    <definedName name="A3530951T">Data1!$J$1:$J$10,Data1!$J$11:$J$120</definedName>
-    <definedName name="A3530951T_Data">Data1!$J$11:$J$120</definedName>
-    <definedName name="A3530951T_Latest">Data1!$J$120</definedName>
-    <definedName name="A3530955A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$120</definedName>
-    <definedName name="A3530955A_Data">Data1!$Z$11:$Z$120</definedName>
-    <definedName name="A3530955A_Latest">Data1!$Z$120</definedName>
-    <definedName name="A3530959K">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$120</definedName>
-    <definedName name="A3530959K_Data">Data1!$AP$11:$AP$120</definedName>
-    <definedName name="A3530959K_Latest">Data1!$AP$120</definedName>
-    <definedName name="A3530963A">Data1!$K$1:$K$10,Data1!$K$11:$K$120</definedName>
-    <definedName name="A3530963A_Data">Data1!$K$11:$K$120</definedName>
-    <definedName name="A3530963A_Latest">Data1!$K$120</definedName>
-    <definedName name="A3530967K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$120</definedName>
-    <definedName name="A3530967K_Data">Data1!$AA$11:$AA$120</definedName>
-    <definedName name="A3530967K_Latest">Data1!$AA$120</definedName>
-    <definedName name="A3530971A">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$120</definedName>
-    <definedName name="A3530971A_Data">Data1!$AQ$11:$AQ$120</definedName>
-    <definedName name="A3530971A_Latest">Data1!$AQ$120</definedName>
-    <definedName name="A3530975K">Data1!$L$1:$L$10,Data1!$L$11:$L$120</definedName>
-    <definedName name="A3530975K_Data">Data1!$L$11:$L$120</definedName>
-    <definedName name="A3530975K_Latest">Data1!$L$120</definedName>
-    <definedName name="A3530979V">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$120</definedName>
-    <definedName name="A3530979V_Data">Data1!$AB$11:$AB$120</definedName>
-    <definedName name="A3530979V_Latest">Data1!$AB$120</definedName>
-    <definedName name="A3530983K">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$120</definedName>
-    <definedName name="A3530983K_Data">Data1!$AR$11:$AR$120</definedName>
-    <definedName name="A3530983K_Latest">Data1!$AR$120</definedName>
-    <definedName name="A3530987V">Data1!$M$1:$M$10,Data1!$M$11:$M$120</definedName>
-    <definedName name="A3530987V_Data">Data1!$M$11:$M$120</definedName>
-    <definedName name="A3530987V_Latest">Data1!$M$120</definedName>
-    <definedName name="A3530991K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$120</definedName>
-    <definedName name="A3530991K_Data">Data1!$AC$11:$AC$120</definedName>
-    <definedName name="A3530991K_Latest">Data1!$AC$120</definedName>
-    <definedName name="A3530995V">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$120</definedName>
-    <definedName name="A3530995V_Data">Data1!$AS$11:$AS$120</definedName>
-    <definedName name="A3530995V_Latest">Data1!$AS$120</definedName>
-    <definedName name="A3530999C">Data1!$N$1:$N$10,Data1!$N$11:$N$120</definedName>
-    <definedName name="A3530999C_Data">Data1!$N$11:$N$120</definedName>
-    <definedName name="A3530999C_Latest">Data1!$N$120</definedName>
-    <definedName name="A3531003K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$120</definedName>
-    <definedName name="A3531003K_Data">Data1!$AD$11:$AD$120</definedName>
-    <definedName name="A3531003K_Latest">Data1!$AD$120</definedName>
-    <definedName name="A3531007V">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$120</definedName>
-    <definedName name="A3531007V_Data">Data1!$AT$11:$AT$120</definedName>
-    <definedName name="A3531007V_Latest">Data1!$AT$120</definedName>
-    <definedName name="A3531011K">Data1!$O$1:$O$10,Data1!$O$11:$O$120</definedName>
-    <definedName name="A3531011K_Data">Data1!$O$11:$O$120</definedName>
-    <definedName name="A3531011K_Latest">Data1!$O$120</definedName>
-    <definedName name="A3531015V">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$120</definedName>
-    <definedName name="A3531015V_Data">Data1!$AE$11:$AE$120</definedName>
-    <definedName name="A3531015V_Latest">Data1!$AE$120</definedName>
-    <definedName name="A3531019C">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$120</definedName>
-    <definedName name="A3531019C_Data">Data1!$AU$11:$AU$120</definedName>
-    <definedName name="A3531019C_Latest">Data1!$AU$120</definedName>
-    <definedName name="A3531023V">Data1!$P$1:$P$10,Data1!$P$11:$P$120</definedName>
-    <definedName name="A3531023V_Data">Data1!$P$11:$P$120</definedName>
-    <definedName name="A3531023V_Latest">Data1!$P$120</definedName>
-    <definedName name="A3531027C">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$120</definedName>
-    <definedName name="A3531027C_Data">Data1!$AF$11:$AF$120</definedName>
-    <definedName name="A3531027C_Latest">Data1!$AF$120</definedName>
-    <definedName name="A3531031V">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$120</definedName>
-    <definedName name="A3531031V_Data">Data1!$AV$11:$AV$120</definedName>
-    <definedName name="A3531031V_Latest">Data1!$AV$120</definedName>
-    <definedName name="A3531605V">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$120</definedName>
-    <definedName name="A3531605V_Data">Data1!$Q$11:$Q$120</definedName>
-    <definedName name="A3531605V_Latest">Data1!$Q$120</definedName>
-    <definedName name="A3531609C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$120</definedName>
-    <definedName name="A3531609C_Data">Data1!$AG$11:$AG$120</definedName>
-    <definedName name="A3531609C_Latest">Data1!$AG$120</definedName>
-    <definedName name="A3531613V">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$120</definedName>
-    <definedName name="A3531613V_Data">Data1!$AW$11:$AW$120</definedName>
-    <definedName name="A3531613V_Latest">Data1!$AW$120</definedName>
-    <definedName name="A3531617C">Data1!$B$1:$B$10,Data1!$B$11:$B$120</definedName>
-    <definedName name="A3531617C_Data">Data1!$B$11:$B$120</definedName>
-    <definedName name="A3531617C_Latest">Data1!$B$120</definedName>
-    <definedName name="A3531621V">Data1!$R$1:$R$10,Data1!$R$11:$R$120</definedName>
-    <definedName name="A3531621V_Data">Data1!$R$11:$R$120</definedName>
-    <definedName name="A3531621V_Latest">Data1!$R$120</definedName>
-    <definedName name="A3531625C">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$120</definedName>
-    <definedName name="A3531625C_Data">Data1!$AH$11:$AH$120</definedName>
-    <definedName name="A3531625C_Latest">Data1!$AH$120</definedName>
-    <definedName name="A3531629L">Data1!$C$1:$C$10,Data1!$C$11:$C$120</definedName>
-    <definedName name="A3531629L_Data">Data1!$C$11:$C$120</definedName>
-    <definedName name="A3531629L_Latest">Data1!$C$120</definedName>
-    <definedName name="A3531633C">Data1!$S$1:$S$10,Data1!$S$11:$S$120</definedName>
-    <definedName name="A3531633C_Data">Data1!$S$11:$S$120</definedName>
-    <definedName name="A3531633C_Latest">Data1!$S$120</definedName>
-    <definedName name="A3531637L">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$120</definedName>
-    <definedName name="A3531637L_Data">Data1!$AI$11:$AI$120</definedName>
-    <definedName name="A3531637L_Latest">Data1!$AI$120</definedName>
-    <definedName name="A3531641C">Data1!$D$1:$D$10,Data1!$D$11:$D$120</definedName>
-    <definedName name="A3531641C_Data">Data1!$D$11:$D$120</definedName>
-    <definedName name="A3531641C_Latest">Data1!$D$120</definedName>
-    <definedName name="A3531645L">Data1!$T$1:$T$10,Data1!$T$11:$T$120</definedName>
-    <definedName name="A3531645L_Data">Data1!$T$11:$T$120</definedName>
-    <definedName name="A3531645L_Latest">Data1!$T$120</definedName>
-    <definedName name="A3531649W">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$120</definedName>
-    <definedName name="A3531649W_Data">Data1!$AJ$11:$AJ$120</definedName>
-    <definedName name="A3531649W_Latest">Data1!$AJ$120</definedName>
-    <definedName name="A3531653L">Data1!$E$1:$E$10,Data1!$E$11:$E$120</definedName>
-    <definedName name="A3531653L_Data">Data1!$E$11:$E$120</definedName>
-    <definedName name="A3531653L_Latest">Data1!$E$120</definedName>
-    <definedName name="A3531657W">Data1!$U$1:$U$10,Data1!$U$11:$U$120</definedName>
-    <definedName name="A3531657W_Data">Data1!$U$11:$U$120</definedName>
-    <definedName name="A3531657W_Latest">Data1!$U$120</definedName>
-    <definedName name="A3531661L">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$120</definedName>
-    <definedName name="A3531661L_Data">Data1!$AK$11:$AK$120</definedName>
-    <definedName name="A3531661L_Latest">Data1!$AK$120</definedName>
-    <definedName name="A3531665W">Data1!$F$1:$F$10,Data1!$F$11:$F$120</definedName>
-    <definedName name="A3531665W_Data">Data1!$F$11:$F$120</definedName>
-    <definedName name="A3531665W_Latest">Data1!$F$120</definedName>
-    <definedName name="A3531669F">Data1!$V$1:$V$10,Data1!$V$11:$V$120</definedName>
-    <definedName name="A3531669F_Data">Data1!$V$11:$V$120</definedName>
-    <definedName name="A3531669F_Latest">Data1!$V$120</definedName>
-    <definedName name="A3531673W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$120</definedName>
-    <definedName name="A3531673W_Data">Data1!$AL$11:$AL$120</definedName>
-    <definedName name="A3531673W_Latest">Data1!$AL$120</definedName>
-    <definedName name="A3531677F">Data1!$G$1:$G$10,Data1!$G$11:$G$120</definedName>
-    <definedName name="A3531677F_Data">Data1!$G$11:$G$120</definedName>
-    <definedName name="A3531677F_Latest">Data1!$G$120</definedName>
-    <definedName name="A3531681W">Data1!$W$1:$W$10,Data1!$W$11:$W$120</definedName>
-    <definedName name="A3531681W_Data">Data1!$W$11:$W$120</definedName>
-    <definedName name="A3531681W_Latest">Data1!$W$120</definedName>
-    <definedName name="A3531685F">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$120</definedName>
-    <definedName name="A3531685F_Data">Data1!$AM$11:$AM$120</definedName>
-    <definedName name="A3531685F_Latest">Data1!$AM$120</definedName>
-    <definedName name="A3531689R">Data1!$H$1:$H$10,Data1!$H$11:$H$120</definedName>
-    <definedName name="A3531689R_Data">Data1!$H$11:$H$120</definedName>
-    <definedName name="A3531689R_Latest">Data1!$H$120</definedName>
-    <definedName name="A3531693F">Data1!$X$1:$X$10,Data1!$X$11:$X$120</definedName>
-    <definedName name="A3531693F_Data">Data1!$X$11:$X$120</definedName>
-    <definedName name="A3531693F_Latest">Data1!$X$120</definedName>
-    <definedName name="A3531697R">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$120</definedName>
-    <definedName name="A3531697R_Data">Data1!$AN$11:$AN$120</definedName>
-    <definedName name="A3531697R_Latest">Data1!$AN$120</definedName>
-    <definedName name="A3531701V">Data1!$I$1:$I$10,Data1!$I$11:$I$120</definedName>
-    <definedName name="A3531701V_Data">Data1!$I$11:$I$120</definedName>
-    <definedName name="A3531701V_Latest">Data1!$I$120</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$120</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$120</definedName>
+    <definedName name="A3530943T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$121</definedName>
+    <definedName name="A3530943T_Data">Data1!$Y$11:$Y$121</definedName>
+    <definedName name="A3530943T_Latest">Data1!$Y$121</definedName>
+    <definedName name="A3530947A">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$121</definedName>
+    <definedName name="A3530947A_Data">Data1!$AO$11:$AO$121</definedName>
+    <definedName name="A3530947A_Latest">Data1!$AO$121</definedName>
+    <definedName name="A3530951T">Data1!$J$1:$J$10,Data1!$J$11:$J$121</definedName>
+    <definedName name="A3530951T_Data">Data1!$J$11:$J$121</definedName>
+    <definedName name="A3530951T_Latest">Data1!$J$121</definedName>
+    <definedName name="A3530955A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$121</definedName>
+    <definedName name="A3530955A_Data">Data1!$Z$11:$Z$121</definedName>
+    <definedName name="A3530955A_Latest">Data1!$Z$121</definedName>
+    <definedName name="A3530959K">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$121</definedName>
+    <definedName name="A3530959K_Data">Data1!$AP$11:$AP$121</definedName>
+    <definedName name="A3530959K_Latest">Data1!$AP$121</definedName>
+    <definedName name="A3530963A">Data1!$K$1:$K$10,Data1!$K$11:$K$121</definedName>
+    <definedName name="A3530963A_Data">Data1!$K$11:$K$121</definedName>
+    <definedName name="A3530963A_Latest">Data1!$K$121</definedName>
+    <definedName name="A3530967K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$121</definedName>
+    <definedName name="A3530967K_Data">Data1!$AA$11:$AA$121</definedName>
+    <definedName name="A3530967K_Latest">Data1!$AA$121</definedName>
+    <definedName name="A3530971A">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$121</definedName>
+    <definedName name="A3530971A_Data">Data1!$AQ$11:$AQ$121</definedName>
+    <definedName name="A3530971A_Latest">Data1!$AQ$121</definedName>
+    <definedName name="A3530975K">Data1!$L$1:$L$10,Data1!$L$11:$L$121</definedName>
+    <definedName name="A3530975K_Data">Data1!$L$11:$L$121</definedName>
+    <definedName name="A3530975K_Latest">Data1!$L$121</definedName>
+    <definedName name="A3530979V">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$121</definedName>
+    <definedName name="A3530979V_Data">Data1!$AB$11:$AB$121</definedName>
+    <definedName name="A3530979V_Latest">Data1!$AB$121</definedName>
+    <definedName name="A3530983K">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$121</definedName>
+    <definedName name="A3530983K_Data">Data1!$AR$11:$AR$121</definedName>
+    <definedName name="A3530983K_Latest">Data1!$AR$121</definedName>
+    <definedName name="A3530987V">Data1!$M$1:$M$10,Data1!$M$11:$M$121</definedName>
+    <definedName name="A3530987V_Data">Data1!$M$11:$M$121</definedName>
+    <definedName name="A3530987V_Latest">Data1!$M$121</definedName>
+    <definedName name="A3530991K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$121</definedName>
+    <definedName name="A3530991K_Data">Data1!$AC$11:$AC$121</definedName>
+    <definedName name="A3530991K_Latest">Data1!$AC$121</definedName>
+    <definedName name="A3530995V">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$121</definedName>
+    <definedName name="A3530995V_Data">Data1!$AS$11:$AS$121</definedName>
+    <definedName name="A3530995V_Latest">Data1!$AS$121</definedName>
+    <definedName name="A3530999C">Data1!$N$1:$N$10,Data1!$N$11:$N$121</definedName>
+    <definedName name="A3530999C_Data">Data1!$N$11:$N$121</definedName>
+    <definedName name="A3530999C_Latest">Data1!$N$121</definedName>
+    <definedName name="A3531003K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$121</definedName>
+    <definedName name="A3531003K_Data">Data1!$AD$11:$AD$121</definedName>
+    <definedName name="A3531003K_Latest">Data1!$AD$121</definedName>
+    <definedName name="A3531007V">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$121</definedName>
+    <definedName name="A3531007V_Data">Data1!$AT$11:$AT$121</definedName>
+    <definedName name="A3531007V_Latest">Data1!$AT$121</definedName>
+    <definedName name="A3531011K">Data1!$O$1:$O$10,Data1!$O$11:$O$121</definedName>
+    <definedName name="A3531011K_Data">Data1!$O$11:$O$121</definedName>
+    <definedName name="A3531011K_Latest">Data1!$O$121</definedName>
+    <definedName name="A3531015V">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$121</definedName>
+    <definedName name="A3531015V_Data">Data1!$AE$11:$AE$121</definedName>
+    <definedName name="A3531015V_Latest">Data1!$AE$121</definedName>
+    <definedName name="A3531019C">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$121</definedName>
+    <definedName name="A3531019C_Data">Data1!$AU$11:$AU$121</definedName>
+    <definedName name="A3531019C_Latest">Data1!$AU$121</definedName>
+    <definedName name="A3531023V">Data1!$P$1:$P$10,Data1!$P$11:$P$121</definedName>
+    <definedName name="A3531023V_Data">Data1!$P$11:$P$121</definedName>
+    <definedName name="A3531023V_Latest">Data1!$P$121</definedName>
+    <definedName name="A3531027C">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$121</definedName>
+    <definedName name="A3531027C_Data">Data1!$AF$11:$AF$121</definedName>
+    <definedName name="A3531027C_Latest">Data1!$AF$121</definedName>
+    <definedName name="A3531031V">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$121</definedName>
+    <definedName name="A3531031V_Data">Data1!$AV$11:$AV$121</definedName>
+    <definedName name="A3531031V_Latest">Data1!$AV$121</definedName>
+    <definedName name="A3531605V">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$121</definedName>
+    <definedName name="A3531605V_Data">Data1!$Q$11:$Q$121</definedName>
+    <definedName name="A3531605V_Latest">Data1!$Q$121</definedName>
+    <definedName name="A3531609C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$121</definedName>
+    <definedName name="A3531609C_Data">Data1!$AG$11:$AG$121</definedName>
+    <definedName name="A3531609C_Latest">Data1!$AG$121</definedName>
+    <definedName name="A3531613V">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$121</definedName>
+    <definedName name="A3531613V_Data">Data1!$AW$11:$AW$121</definedName>
+    <definedName name="A3531613V_Latest">Data1!$AW$121</definedName>
+    <definedName name="A3531617C">Data1!$B$1:$B$10,Data1!$B$11:$B$121</definedName>
+    <definedName name="A3531617C_Data">Data1!$B$11:$B$121</definedName>
+    <definedName name="A3531617C_Latest">Data1!$B$121</definedName>
+    <definedName name="A3531621V">Data1!$R$1:$R$10,Data1!$R$11:$R$121</definedName>
+    <definedName name="A3531621V_Data">Data1!$R$11:$R$121</definedName>
+    <definedName name="A3531621V_Latest">Data1!$R$121</definedName>
+    <definedName name="A3531625C">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$121</definedName>
+    <definedName name="A3531625C_Data">Data1!$AH$11:$AH$121</definedName>
+    <definedName name="A3531625C_Latest">Data1!$AH$121</definedName>
+    <definedName name="A3531629L">Data1!$C$1:$C$10,Data1!$C$11:$C$121</definedName>
+    <definedName name="A3531629L_Data">Data1!$C$11:$C$121</definedName>
+    <definedName name="A3531629L_Latest">Data1!$C$121</definedName>
+    <definedName name="A3531633C">Data1!$S$1:$S$10,Data1!$S$11:$S$121</definedName>
+    <definedName name="A3531633C_Data">Data1!$S$11:$S$121</definedName>
+    <definedName name="A3531633C_Latest">Data1!$S$121</definedName>
+    <definedName name="A3531637L">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$121</definedName>
+    <definedName name="A3531637L_Data">Data1!$AI$11:$AI$121</definedName>
+    <definedName name="A3531637L_Latest">Data1!$AI$121</definedName>
+    <definedName name="A3531641C">Data1!$D$1:$D$10,Data1!$D$11:$D$121</definedName>
+    <definedName name="A3531641C_Data">Data1!$D$11:$D$121</definedName>
+    <definedName name="A3531641C_Latest">Data1!$D$121</definedName>
+    <definedName name="A3531645L">Data1!$T$1:$T$10,Data1!$T$11:$T$121</definedName>
+    <definedName name="A3531645L_Data">Data1!$T$11:$T$121</definedName>
+    <definedName name="A3531645L_Latest">Data1!$T$121</definedName>
+    <definedName name="A3531649W">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$121</definedName>
+    <definedName name="A3531649W_Data">Data1!$AJ$11:$AJ$121</definedName>
+    <definedName name="A3531649W_Latest">Data1!$AJ$121</definedName>
+    <definedName name="A3531653L">Data1!$E$1:$E$10,Data1!$E$11:$E$121</definedName>
+    <definedName name="A3531653L_Data">Data1!$E$11:$E$121</definedName>
+    <definedName name="A3531653L_Latest">Data1!$E$121</definedName>
+    <definedName name="A3531657W">Data1!$U$1:$U$10,Data1!$U$11:$U$121</definedName>
+    <definedName name="A3531657W_Data">Data1!$U$11:$U$121</definedName>
+    <definedName name="A3531657W_Latest">Data1!$U$121</definedName>
+    <definedName name="A3531661L">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$121</definedName>
+    <definedName name="A3531661L_Data">Data1!$AK$11:$AK$121</definedName>
+    <definedName name="A3531661L_Latest">Data1!$AK$121</definedName>
+    <definedName name="A3531665W">Data1!$F$1:$F$10,Data1!$F$11:$F$121</definedName>
+    <definedName name="A3531665W_Data">Data1!$F$11:$F$121</definedName>
+    <definedName name="A3531665W_Latest">Data1!$F$121</definedName>
+    <definedName name="A3531669F">Data1!$V$1:$V$10,Data1!$V$11:$V$121</definedName>
+    <definedName name="A3531669F_Data">Data1!$V$11:$V$121</definedName>
+    <definedName name="A3531669F_Latest">Data1!$V$121</definedName>
+    <definedName name="A3531673W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$121</definedName>
+    <definedName name="A3531673W_Data">Data1!$AL$11:$AL$121</definedName>
+    <definedName name="A3531673W_Latest">Data1!$AL$121</definedName>
+    <definedName name="A3531677F">Data1!$G$1:$G$10,Data1!$G$11:$G$121</definedName>
+    <definedName name="A3531677F_Data">Data1!$G$11:$G$121</definedName>
+    <definedName name="A3531677F_Latest">Data1!$G$121</definedName>
+    <definedName name="A3531681W">Data1!$W$1:$W$10,Data1!$W$11:$W$121</definedName>
+    <definedName name="A3531681W_Data">Data1!$W$11:$W$121</definedName>
+    <definedName name="A3531681W_Latest">Data1!$W$121</definedName>
+    <definedName name="A3531685F">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$121</definedName>
+    <definedName name="A3531685F_Data">Data1!$AM$11:$AM$121</definedName>
+    <definedName name="A3531685F_Latest">Data1!$AM$121</definedName>
+    <definedName name="A3531689R">Data1!$H$1:$H$10,Data1!$H$11:$H$121</definedName>
+    <definedName name="A3531689R_Data">Data1!$H$11:$H$121</definedName>
+    <definedName name="A3531689R_Latest">Data1!$H$121</definedName>
+    <definedName name="A3531693F">Data1!$X$1:$X$10,Data1!$X$11:$X$121</definedName>
+    <definedName name="A3531693F_Data">Data1!$X$11:$X$121</definedName>
+    <definedName name="A3531693F_Latest">Data1!$X$121</definedName>
+    <definedName name="A3531697R">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$121</definedName>
+    <definedName name="A3531697R_Data">Data1!$AN$11:$AN$121</definedName>
+    <definedName name="A3531697R_Latest">Data1!$AN$121</definedName>
+    <definedName name="A3531701V">Data1!$I$1:$I$10,Data1!$I$11:$I$121</definedName>
+    <definedName name="A3531701V_Data">Data1!$I$11:$I$121</definedName>
+    <definedName name="A3531701V_Latest">Data1!$I$121</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$121</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$121</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -6492,6 +6492,266 @@
       </text>
     </comment>
     <comment ref="AW120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error between 25% and 50% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW121" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7472,22 +7732,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9">
         <v>34578</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -7504,22 +7764,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F13" s="9">
         <v>34578</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>25</v>
@@ -7536,22 +7796,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F14" s="9">
         <v>34578</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>25</v>
@@ -7568,22 +7828,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F15" s="9">
         <v>34578</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>25</v>
@@ -7600,22 +7860,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F16" s="9">
         <v>34578</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>25</v>
@@ -7632,22 +7892,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F17" s="9">
         <v>34578</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>25</v>
@@ -7664,22 +7924,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F18" s="9">
         <v>34578</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>25</v>
@@ -7696,22 +7956,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F19" s="9">
         <v>34578</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>25</v>
@@ -7728,22 +7988,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F20" s="9">
         <v>34578</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>25</v>
@@ -7760,22 +8020,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F21" s="9">
         <v>34578</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>25</v>
@@ -7792,22 +8052,22 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F22" s="9">
         <v>34578</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>25</v>
@@ -7824,22 +8084,22 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F23" s="9">
         <v>34578</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>25</v>
@@ -7856,22 +8116,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F24" s="9">
         <v>34578</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>25</v>
@@ -7888,22 +8148,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F25" s="9">
         <v>34578</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>25</v>
@@ -7920,22 +8180,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F26" s="9">
         <v>34578</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>25</v>
@@ -7952,22 +8212,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F27" s="9">
         <v>34578</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>25</v>
@@ -7984,22 +8244,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F28" s="9">
         <v>34578</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>25</v>
@@ -8016,22 +8276,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9">
         <v>34578</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>25</v>
@@ -8048,22 +8308,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F30" s="9">
         <v>34578</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>25</v>
@@ -8080,22 +8340,22 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F31" s="9">
         <v>34578</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>25</v>
@@ -8112,22 +8372,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F32" s="9">
         <v>34578</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>25</v>
@@ -8144,22 +8404,22 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F33" s="9">
         <v>34578</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>25</v>
@@ -8176,22 +8436,22 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F34" s="9">
         <v>34578</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>25</v>
@@ -8208,22 +8468,22 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F35" s="9">
         <v>34578</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>25</v>
@@ -8240,22 +8500,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F36" s="9">
         <v>34578</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>25</v>
@@ -8272,22 +8532,22 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F37" s="9">
         <v>34578</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>25</v>
@@ -8304,22 +8564,22 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F38" s="9">
         <v>34578</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>25</v>
@@ -8336,22 +8596,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F39" s="9">
         <v>34578</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>25</v>
@@ -8368,22 +8628,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F40" s="9">
         <v>34578</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>25</v>
@@ -8400,22 +8660,22 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F41" s="9">
         <v>34578</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>25</v>
@@ -8432,22 +8692,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F42" s="9">
         <v>34578</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>25</v>
@@ -8464,22 +8724,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F43" s="9">
         <v>34578</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>25</v>
@@ -8496,22 +8756,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F44" s="9">
         <v>34578</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>25</v>
@@ -8528,22 +8788,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F45" s="9">
         <v>34578</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>25</v>
@@ -8560,22 +8820,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F46" s="9">
         <v>34578</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>25</v>
@@ -8592,22 +8852,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F47" s="9">
         <v>34578</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>25</v>
@@ -8624,22 +8884,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F48" s="9">
         <v>34578</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>25</v>
@@ -8659,19 +8919,19 @@
         <v>5</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F49" s="9">
         <v>34578</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>25</v>
@@ -8688,22 +8948,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50" s="9">
         <v>34578</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>25</v>
@@ -8720,22 +8980,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F51" s="9">
         <v>34578</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>25</v>
@@ -8752,22 +9012,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F52" s="9">
         <v>34578</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>25</v>
@@ -8784,22 +9044,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F53" s="9">
         <v>34578</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>25</v>
@@ -8816,22 +9076,22 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F54" s="9">
         <v>34578</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>25</v>
@@ -8848,22 +9108,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F55" s="9">
         <v>34578</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>25</v>
@@ -8880,22 +9140,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F56" s="9">
         <v>34578</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>25</v>
@@ -8912,22 +9172,22 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F57" s="9">
         <v>34578</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>25</v>
@@ -8944,22 +9204,22 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F58" s="9">
         <v>34578</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>25</v>
@@ -8976,22 +9236,22 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F59" s="9">
         <v>34578</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>25</v>
@@ -9012,59 +9272,62 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A12:XFD59">
+    <sortCondition ref="A12"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries"/>
-    <hyperlink ref="E12" location="A3531617C" display="A3531617C"/>
-    <hyperlink ref="E13" location="A3531629L" display="A3531629L"/>
-    <hyperlink ref="E14" location="A3531641C" display="A3531641C"/>
-    <hyperlink ref="E15" location="A3531653L" display="A3531653L"/>
-    <hyperlink ref="E16" location="A3531665W" display="A3531665W"/>
-    <hyperlink ref="E17" location="A3531677F" display="A3531677F"/>
-    <hyperlink ref="E18" location="A3531689R" display="A3531689R"/>
-    <hyperlink ref="E19" location="A3531701V" display="A3531701V"/>
-    <hyperlink ref="E20" location="A3530951T" display="A3530951T"/>
-    <hyperlink ref="E21" location="A3530963A" display="A3530963A"/>
-    <hyperlink ref="E22" location="A3530975K" display="A3530975K"/>
-    <hyperlink ref="E23" location="A3530987V" display="A3530987V"/>
-    <hyperlink ref="E24" location="A3530999C" display="A3530999C"/>
-    <hyperlink ref="E25" location="A3531011K" display="A3531011K"/>
-    <hyperlink ref="E26" location="A3531023V" display="A3531023V"/>
-    <hyperlink ref="E27" location="A3531605V" display="A3531605V"/>
-    <hyperlink ref="E28" location="A3531621V" display="A3531621V"/>
-    <hyperlink ref="E29" location="A3531633C" display="A3531633C"/>
-    <hyperlink ref="E30" location="A3531645L" display="A3531645L"/>
-    <hyperlink ref="E31" location="A3531657W" display="A3531657W"/>
-    <hyperlink ref="E32" location="A3531669F" display="A3531669F"/>
-    <hyperlink ref="E33" location="A3531681W" display="A3531681W"/>
-    <hyperlink ref="E34" location="A3531693F" display="A3531693F"/>
-    <hyperlink ref="E35" location="A3530943T" display="A3530943T"/>
-    <hyperlink ref="E36" location="A3530955A" display="A3530955A"/>
-    <hyperlink ref="E37" location="A3530967K" display="A3530967K"/>
-    <hyperlink ref="E38" location="A3530979V" display="A3530979V"/>
-    <hyperlink ref="E39" location="A3530991K" display="A3530991K"/>
-    <hyperlink ref="E40" location="A3531003K" display="A3531003K"/>
-    <hyperlink ref="E41" location="A3531015V" display="A3531015V"/>
-    <hyperlink ref="E42" location="A3531027C" display="A3531027C"/>
-    <hyperlink ref="E43" location="A3531609C" display="A3531609C"/>
-    <hyperlink ref="E44" location="A3531625C" display="A3531625C"/>
-    <hyperlink ref="E45" location="A3531637L" display="A3531637L"/>
-    <hyperlink ref="E46" location="A3531649W" display="A3531649W"/>
-    <hyperlink ref="E47" location="A3531661L" display="A3531661L"/>
-    <hyperlink ref="E48" location="A3531673W" display="A3531673W"/>
-    <hyperlink ref="E49" location="A3531685F" display="A3531685F"/>
-    <hyperlink ref="E50" location="A3531697R" display="A3531697R"/>
-    <hyperlink ref="E51" location="A3530947A" display="A3530947A"/>
-    <hyperlink ref="E52" location="A3530959K" display="A3530959K"/>
-    <hyperlink ref="E53" location="A3530971A" display="A3530971A"/>
-    <hyperlink ref="E54" location="A3530983K" display="A3530983K"/>
-    <hyperlink ref="E55" location="A3530995V" display="A3530995V"/>
-    <hyperlink ref="E56" location="A3531007V" display="A3531007V"/>
-    <hyperlink ref="E57" location="A3531019C" display="A3531019C"/>
-    <hyperlink ref="E58" location="A3531031V" display="A3531031V"/>
-    <hyperlink ref="E59" location="A3531613V" display="A3531613V"/>
+    <hyperlink ref="E36" location="A3531617C" display="A3531617C"/>
+    <hyperlink ref="E33" location="A3531629L" display="A3531629L"/>
+    <hyperlink ref="E24" location="A3531641C" display="A3531641C"/>
+    <hyperlink ref="E21" location="A3531653L" display="A3531653L"/>
+    <hyperlink ref="E57" location="A3531665W" display="A3531665W"/>
+    <hyperlink ref="E48" location="A3531677F" display="A3531677F"/>
+    <hyperlink ref="E12" location="A3531689R" display="A3531689R"/>
+    <hyperlink ref="E54" location="A3531701V" display="A3531701V"/>
+    <hyperlink ref="E30" location="A3530951T" display="A3530951T"/>
+    <hyperlink ref="E27" location="A3530963A" display="A3530963A"/>
+    <hyperlink ref="E45" location="A3530975K" display="A3530975K"/>
+    <hyperlink ref="E42" location="A3530987V" display="A3530987V"/>
+    <hyperlink ref="E15" location="A3530999C" display="A3530999C"/>
+    <hyperlink ref="E18" location="A3531011K" display="A3531011K"/>
+    <hyperlink ref="E39" location="A3531023V" display="A3531023V"/>
+    <hyperlink ref="E51" location="A3531605V" display="A3531605V"/>
+    <hyperlink ref="E37" location="A3531621V" display="A3531621V"/>
+    <hyperlink ref="E34" location="A3531633C" display="A3531633C"/>
+    <hyperlink ref="E25" location="A3531645L" display="A3531645L"/>
+    <hyperlink ref="E22" location="A3531657W" display="A3531657W"/>
+    <hyperlink ref="E58" location="A3531669F" display="A3531669F"/>
+    <hyperlink ref="E49" location="A3531681W" display="A3531681W"/>
+    <hyperlink ref="E13" location="A3531693F" display="A3531693F"/>
+    <hyperlink ref="E55" location="A3530943T" display="A3530943T"/>
+    <hyperlink ref="E31" location="A3530955A" display="A3530955A"/>
+    <hyperlink ref="E28" location="A3530967K" display="A3530967K"/>
+    <hyperlink ref="E46" location="A3530979V" display="A3530979V"/>
+    <hyperlink ref="E43" location="A3530991K" display="A3530991K"/>
+    <hyperlink ref="E16" location="A3531003K" display="A3531003K"/>
+    <hyperlink ref="E19" location="A3531015V" display="A3531015V"/>
+    <hyperlink ref="E40" location="A3531027C" display="A3531027C"/>
+    <hyperlink ref="E52" location="A3531609C" display="A3531609C"/>
+    <hyperlink ref="E38" location="A3531625C" display="A3531625C"/>
+    <hyperlink ref="E35" location="A3531637L" display="A3531637L"/>
+    <hyperlink ref="E26" location="A3531649W" display="A3531649W"/>
+    <hyperlink ref="E23" location="A3531661L" display="A3531661L"/>
+    <hyperlink ref="E59" location="A3531673W" display="A3531673W"/>
+    <hyperlink ref="E50" location="A3531685F" display="A3531685F"/>
+    <hyperlink ref="E14" location="A3531697R" display="A3531697R"/>
+    <hyperlink ref="E56" location="A3530947A" display="A3530947A"/>
+    <hyperlink ref="E32" location="A3530959K" display="A3530959K"/>
+    <hyperlink ref="E29" location="A3530971A" display="A3530971A"/>
+    <hyperlink ref="E47" location="A3530983K" display="A3530983K"/>
+    <hyperlink ref="E44" location="A3530995V" display="A3530995V"/>
+    <hyperlink ref="E17" location="A3531007V" display="A3531007V"/>
+    <hyperlink ref="E20" location="A3531019C" display="A3531019C"/>
+    <hyperlink ref="E41" location="A3531031V" display="A3531031V"/>
+    <hyperlink ref="E53" location="A3531613V" display="A3531613V"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9074,7 +9337,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW120"/>
+  <dimension ref="A1:AW121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -10133,148 +10396,148 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
@@ -10282,148 +10545,148 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AP9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AQ9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AR9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AS9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AT9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AU9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AW9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
@@ -10676,7 +10939,7 @@
         <v>12312</v>
       </c>
       <c r="AH11" s="8">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="AI11" s="8">
         <v>4741</v>
@@ -10688,7 +10951,7 @@
         <v>355</v>
       </c>
       <c r="AL11" s="8">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="AM11" s="8">
         <v>804</v>
@@ -10706,7 +10969,7 @@
         <v>492</v>
       </c>
       <c r="AR11" s="8">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AS11" s="8">
         <v>158</v>
@@ -10718,7 +10981,7 @@
         <v>14</v>
       </c>
       <c r="AV11" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW11" s="8">
         <v>12347</v>
@@ -10825,7 +11088,7 @@
         <v>12269</v>
       </c>
       <c r="AH12" s="8">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AI12" s="8">
         <v>4742</v>
@@ -10974,7 +11237,7 @@
         <v>12032</v>
       </c>
       <c r="AH13" s="8">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="AI13" s="8">
         <v>4731</v>
@@ -10986,7 +11249,7 @@
         <v>361</v>
       </c>
       <c r="AL13" s="8">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="AM13" s="8">
         <v>776</v>
@@ -16591,7 +16854,7 @@
         <v>6975</v>
       </c>
       <c r="S51" s="8">
-        <v>7934</v>
+        <v>7933</v>
       </c>
       <c r="T51" s="8">
         <v>1527</v>
@@ -16797,7 +17060,7 @@
         <v>2340</v>
       </c>
       <c r="AL52" s="8">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="AM52" s="8">
         <v>2325</v>
@@ -16886,7 +17149,7 @@
         <v>34491</v>
       </c>
       <c r="R53" s="8">
-        <v>7465</v>
+        <v>7466</v>
       </c>
       <c r="S53" s="8">
         <v>7802</v>
@@ -17080,7 +17343,7 @@
         <v>597</v>
       </c>
       <c r="AG54" s="8">
-        <v>40926</v>
+        <v>40927</v>
       </c>
       <c r="AH54" s="8">
         <v>10532</v>
@@ -17214,7 +17477,7 @@
         <v>1890</v>
       </c>
       <c r="AB55" s="8">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="AC55" s="8">
         <v>753</v>
@@ -17524,7 +17787,7 @@
         <v>788</v>
       </c>
       <c r="AF57" s="8">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG57" s="8">
         <v>42705</v>
@@ -17673,7 +17936,7 @@
         <v>717</v>
       </c>
       <c r="AF58" s="8">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG58" s="8">
         <v>45492</v>
@@ -17798,7 +18061,7 @@
         <v>2521</v>
       </c>
       <c r="X59" s="8">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Y59" s="8">
         <v>2797</v>
@@ -17822,7 +18085,7 @@
         <v>708</v>
       </c>
       <c r="AF59" s="8">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG59" s="8">
         <v>45794</v>
@@ -17971,7 +18234,7 @@
         <v>905</v>
       </c>
       <c r="AF60" s="8">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG60" s="8">
         <v>47192</v>
@@ -18078,7 +18341,7 @@
         <v>45659</v>
       </c>
       <c r="R61" s="8">
-        <v>12631</v>
+        <v>12632</v>
       </c>
       <c r="S61" s="8">
         <v>8941</v>
@@ -18087,7 +18350,7 @@
         <v>1529</v>
       </c>
       <c r="U61" s="8">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="V61" s="8">
         <v>4678</v>
@@ -18135,7 +18398,7 @@
         <v>1565</v>
       </c>
       <c r="AK61" s="8">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="AL61" s="8">
         <v>4611</v>
@@ -18171,7 +18434,7 @@
         <v>658</v>
       </c>
       <c r="AW61" s="8">
-        <v>50349</v>
+        <v>50350</v>
       </c>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.2">
@@ -18245,7 +18508,7 @@
         <v>3061</v>
       </c>
       <c r="X62" s="8">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Y62" s="8">
         <v>2711</v>
@@ -18269,10 +18532,10 @@
         <v>969</v>
       </c>
       <c r="AF62" s="8">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG62" s="8">
-        <v>50987</v>
+        <v>50988</v>
       </c>
       <c r="AH62" s="8">
         <v>12616</v>
@@ -18293,7 +18556,7 @@
         <v>3060</v>
       </c>
       <c r="AN62" s="8">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AO62" s="8">
         <v>2990</v>
@@ -18421,7 +18684,7 @@
         <v>688</v>
       </c>
       <c r="AG63" s="8">
-        <v>49145</v>
+        <v>49144</v>
       </c>
       <c r="AH63" s="8">
         <v>12514</v>
@@ -18576,7 +18839,7 @@
         <v>12641</v>
       </c>
       <c r="AI64" s="8">
-        <v>9049</v>
+        <v>9050</v>
       </c>
       <c r="AJ64" s="8">
         <v>1775</v>
@@ -18674,7 +18937,7 @@
         <v>49905</v>
       </c>
       <c r="R65" s="8">
-        <v>13773</v>
+        <v>13774</v>
       </c>
       <c r="S65" s="8">
         <v>9444</v>
@@ -18704,7 +18967,7 @@
         <v>1837</v>
       </c>
       <c r="AB65" s="8">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="AC65" s="8">
         <v>899</v>
@@ -18716,16 +18979,16 @@
         <v>713</v>
       </c>
       <c r="AF65" s="8">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG65" s="8">
-        <v>54916</v>
+        <v>54917</v>
       </c>
       <c r="AH65" s="8">
         <v>12957</v>
       </c>
       <c r="AI65" s="8">
-        <v>9669</v>
+        <v>9670</v>
       </c>
       <c r="AJ65" s="8">
         <v>1930</v>
@@ -18865,7 +19128,7 @@
         <v>655</v>
       </c>
       <c r="AF66" s="8">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG66" s="8">
         <v>61433</v>
@@ -18972,10 +19235,10 @@
         <v>67620</v>
       </c>
       <c r="R67" s="8">
-        <v>24103</v>
+        <v>24102</v>
       </c>
       <c r="S67" s="8">
-        <v>9236</v>
+        <v>9235</v>
       </c>
       <c r="T67" s="8">
         <v>2159</v>
@@ -19014,10 +19277,10 @@
         <v>707</v>
       </c>
       <c r="AF67" s="8">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG67" s="8">
-        <v>65683</v>
+        <v>65681</v>
       </c>
       <c r="AH67" s="8">
         <v>23813</v>
@@ -19062,10 +19325,10 @@
         <v>692</v>
       </c>
       <c r="AV67" s="8">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AW67" s="8">
-        <v>64489</v>
+        <v>64488</v>
       </c>
     </row>
     <row r="68" spans="1:49" x14ac:dyDescent="0.2">
@@ -19121,7 +19384,7 @@
         <v>67360</v>
       </c>
       <c r="R68" s="8">
-        <v>24180</v>
+        <v>24179</v>
       </c>
       <c r="S68" s="8">
         <v>7737</v>
@@ -19163,13 +19426,13 @@
         <v>726</v>
       </c>
       <c r="AF68" s="8">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AG68" s="8">
-        <v>62162</v>
+        <v>62161</v>
       </c>
       <c r="AH68" s="8">
-        <v>23565</v>
+        <v>23566</v>
       </c>
       <c r="AI68" s="8">
         <v>7673</v>
@@ -19270,7 +19533,7 @@
         <v>53972</v>
       </c>
       <c r="R69" s="8">
-        <v>22204</v>
+        <v>22206</v>
       </c>
       <c r="S69" s="8">
         <v>5943</v>
@@ -19312,10 +19575,10 @@
         <v>787</v>
       </c>
       <c r="AF69" s="8">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AG69" s="8">
-        <v>59506</v>
+        <v>59511</v>
       </c>
       <c r="AH69" s="8">
         <v>22079</v>
@@ -19327,7 +19590,7 @@
         <v>2251</v>
       </c>
       <c r="AK69" s="8">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="AL69" s="8">
         <v>4570</v>
@@ -19363,7 +19626,7 @@
         <v>744</v>
       </c>
       <c r="AW69" s="8">
-        <v>59522</v>
+        <v>59523</v>
       </c>
     </row>
     <row r="70" spans="1:49" x14ac:dyDescent="0.2">
@@ -19437,10 +19700,10 @@
         <v>3874</v>
       </c>
       <c r="X70" s="8">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Y70" s="8">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="Z70" s="8">
         <v>4713</v>
@@ -19461,7 +19724,7 @@
         <v>907</v>
       </c>
       <c r="AF70" s="8">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG70" s="8">
         <v>52830</v>
@@ -19476,7 +19739,7 @@
         <v>2283</v>
       </c>
       <c r="AK70" s="8">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="AL70" s="8">
         <v>4391</v>
@@ -19512,7 +19775,7 @@
         <v>735</v>
       </c>
       <c r="AW70" s="8">
-        <v>53125</v>
+        <v>53124</v>
       </c>
     </row>
     <row r="71" spans="1:49" x14ac:dyDescent="0.2">
@@ -19568,7 +19831,7 @@
         <v>54620</v>
       </c>
       <c r="R71" s="8">
-        <v>13743</v>
+        <v>13742</v>
       </c>
       <c r="S71" s="8">
         <v>7069</v>
@@ -19577,7 +19840,7 @@
         <v>2225</v>
       </c>
       <c r="U71" s="8">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="V71" s="8">
         <v>3878</v>
@@ -19586,7 +19849,7 @@
         <v>3692</v>
       </c>
       <c r="X71" s="8">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="Y71" s="8">
         <v>3372</v>
@@ -19613,10 +19876,10 @@
         <v>691</v>
       </c>
       <c r="AG71" s="8">
-        <v>52903</v>
+        <v>52901</v>
       </c>
       <c r="AH71" s="8">
-        <v>13999</v>
+        <v>13998</v>
       </c>
       <c r="AI71" s="8">
         <v>7052</v>
@@ -19658,10 +19921,10 @@
         <v>872</v>
       </c>
       <c r="AV71" s="8">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AW71" s="8">
-        <v>53497</v>
+        <v>53496</v>
       </c>
     </row>
     <row r="72" spans="1:49" x14ac:dyDescent="0.2">
@@ -19759,13 +20022,13 @@
         <v>863</v>
       </c>
       <c r="AF72" s="8">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AG72" s="8">
-        <v>55874</v>
+        <v>55873</v>
       </c>
       <c r="AH72" s="8">
-        <v>14354</v>
+        <v>14355</v>
       </c>
       <c r="AI72" s="8">
         <v>8029</v>
@@ -19810,7 +20073,7 @@
         <v>1035</v>
       </c>
       <c r="AW72" s="8">
-        <v>55774</v>
+        <v>55775</v>
       </c>
     </row>
     <row r="73" spans="1:49" x14ac:dyDescent="0.2">
@@ -19866,10 +20129,10 @@
         <v>53042</v>
       </c>
       <c r="R73" s="8">
-        <v>15978</v>
+        <v>15981</v>
       </c>
       <c r="S73" s="8">
-        <v>9027</v>
+        <v>9028</v>
       </c>
       <c r="T73" s="8">
         <v>2191</v>
@@ -19878,10 +20141,10 @@
         <v>3602</v>
       </c>
       <c r="V73" s="8">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="W73" s="8">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="X73" s="8">
         <v>1233</v>
@@ -19890,7 +20153,7 @@
         <v>3852</v>
       </c>
       <c r="Z73" s="8">
-        <v>4841</v>
+        <v>4842</v>
       </c>
       <c r="AA73" s="8">
         <v>745</v>
@@ -19902,22 +20165,22 @@
         <v>2359</v>
       </c>
       <c r="AD73" s="8">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AE73" s="8">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF73" s="8">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="AG73" s="8">
-        <v>58495</v>
+        <v>58504</v>
       </c>
       <c r="AH73" s="8">
         <v>15786</v>
       </c>
       <c r="AI73" s="8">
-        <v>8696</v>
+        <v>8697</v>
       </c>
       <c r="AJ73" s="8">
         <v>2203</v>
@@ -19956,10 +20219,10 @@
         <v>905</v>
       </c>
       <c r="AV73" s="8">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AW73" s="8">
-        <v>58306</v>
+        <v>58308</v>
       </c>
     </row>
     <row r="74" spans="1:49" x14ac:dyDescent="0.2">
@@ -20015,7 +20278,7 @@
         <v>66447</v>
       </c>
       <c r="R74" s="8">
-        <v>24630</v>
+        <v>24628</v>
       </c>
       <c r="S74" s="8">
         <v>8921</v>
@@ -20033,13 +20296,13 @@
         <v>3555</v>
       </c>
       <c r="X74" s="8">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Y74" s="8">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Z74" s="8">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="AA74" s="8">
         <v>669</v>
@@ -20060,10 +20323,10 @@
         <v>890</v>
       </c>
       <c r="AG74" s="8">
-        <v>67680</v>
+        <v>67675</v>
       </c>
       <c r="AH74" s="8">
-        <v>23848</v>
+        <v>23847</v>
       </c>
       <c r="AI74" s="8">
         <v>8738</v>
@@ -20078,7 +20341,7 @@
         <v>4662</v>
       </c>
       <c r="AM74" s="8">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="AN74" s="8">
         <v>1262</v>
@@ -20108,7 +20371,7 @@
         <v>907</v>
       </c>
       <c r="AW74" s="8">
-        <v>66529</v>
+        <v>66528</v>
       </c>
     </row>
     <row r="75" spans="1:49" x14ac:dyDescent="0.2">
@@ -20164,7 +20427,7 @@
         <v>67597</v>
       </c>
       <c r="R75" s="8">
-        <v>24101</v>
+        <v>24097</v>
       </c>
       <c r="S75" s="8">
         <v>8136</v>
@@ -20173,7 +20436,7 @@
         <v>2158</v>
       </c>
       <c r="U75" s="8">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="V75" s="8">
         <v>4722</v>
@@ -20182,16 +20445,16 @@
         <v>3866</v>
       </c>
       <c r="X75" s="8">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="Y75" s="8">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="Z75" s="8">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="AA75" s="8">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AB75" s="8">
         <v>3615</v>
@@ -20200,16 +20463,16 @@
         <v>1990</v>
       </c>
       <c r="AD75" s="8">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AE75" s="8">
         <v>886</v>
       </c>
       <c r="AF75" s="8">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AG75" s="8">
-        <v>65269</v>
+        <v>65263</v>
       </c>
       <c r="AH75" s="8">
         <v>23875</v>
@@ -20257,7 +20520,7 @@
         <v>901</v>
       </c>
       <c r="AW75" s="8">
-        <v>65918</v>
+        <v>65917</v>
       </c>
     </row>
     <row r="76" spans="1:49" x14ac:dyDescent="0.2">
@@ -20334,7 +20597,7 @@
         <v>1287</v>
       </c>
       <c r="Y76" s="8">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="Z76" s="8">
         <v>4791</v>
@@ -20355,13 +20618,13 @@
         <v>769</v>
       </c>
       <c r="AF76" s="8">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AG76" s="8">
         <v>65074</v>
       </c>
       <c r="AH76" s="8">
-        <v>23209</v>
+        <v>23211</v>
       </c>
       <c r="AI76" s="8">
         <v>7856</v>
@@ -20406,7 +20669,7 @@
         <v>928</v>
       </c>
       <c r="AW76" s="8">
-        <v>65123</v>
+        <v>65125</v>
       </c>
     </row>
     <row r="77" spans="1:49" x14ac:dyDescent="0.2">
@@ -20462,19 +20725,19 @@
         <v>57481</v>
       </c>
       <c r="R77" s="8">
-        <v>21184</v>
+        <v>21191</v>
       </c>
       <c r="S77" s="8">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="T77" s="8">
         <v>2078</v>
       </c>
       <c r="U77" s="8">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="V77" s="8">
-        <v>5103</v>
+        <v>5104</v>
       </c>
       <c r="W77" s="8">
         <v>3679</v>
@@ -20504,13 +20767,13 @@
         <v>1070</v>
       </c>
       <c r="AF77" s="8">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="AG77" s="8">
-        <v>63273</v>
+        <v>63287</v>
       </c>
       <c r="AH77" s="8">
-        <v>23493</v>
+        <v>23494</v>
       </c>
       <c r="AI77" s="8">
         <v>7706</v>
@@ -20519,7 +20782,7 @@
         <v>2262</v>
       </c>
       <c r="AK77" s="8">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="AL77" s="8">
         <v>5045</v>
@@ -20552,10 +20815,10 @@
         <v>961</v>
       </c>
       <c r="AV77" s="8">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AW77" s="8">
-        <v>66082</v>
+        <v>66083</v>
       </c>
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.2">
@@ -20611,28 +20874,28 @@
         <v>66803</v>
       </c>
       <c r="R78" s="8">
-        <v>24809</v>
+        <v>24803</v>
       </c>
       <c r="S78" s="8">
-        <v>7644</v>
+        <v>7643</v>
       </c>
       <c r="T78" s="8">
         <v>2469</v>
       </c>
       <c r="U78" s="8">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="V78" s="8">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="W78" s="8">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="X78" s="8">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Y78" s="8">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="Z78" s="8">
         <v>4731</v>
@@ -20644,7 +20907,7 @@
         <v>3905</v>
       </c>
       <c r="AC78" s="8">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="AD78" s="8">
         <v>254</v>
@@ -20656,10 +20919,10 @@
         <v>814</v>
       </c>
       <c r="AG78" s="8">
-        <v>68094</v>
+        <v>68082</v>
       </c>
       <c r="AH78" s="8">
-        <v>24687</v>
+        <v>24685</v>
       </c>
       <c r="AI78" s="8">
         <v>7546</v>
@@ -20704,7 +20967,7 @@
         <v>845</v>
       </c>
       <c r="AW78" s="8">
-        <v>68177</v>
+        <v>68173</v>
       </c>
     </row>
     <row r="79" spans="1:49" x14ac:dyDescent="0.2">
@@ -20760,7 +21023,7 @@
         <v>73358</v>
       </c>
       <c r="R79" s="8">
-        <v>25755</v>
+        <v>25749</v>
       </c>
       <c r="S79" s="8">
         <v>7065</v>
@@ -20769,28 +21032,28 @@
         <v>2687</v>
       </c>
       <c r="U79" s="8">
-        <v>4465</v>
+        <v>4462</v>
       </c>
       <c r="V79" s="8">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="W79" s="8">
         <v>3985</v>
       </c>
       <c r="X79" s="8">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="Y79" s="8">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="Z79" s="8">
-        <v>4657</v>
+        <v>4656</v>
       </c>
       <c r="AA79" s="8">
         <v>1154</v>
       </c>
       <c r="AB79" s="8">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="AC79" s="8">
         <v>3014</v>
@@ -20802,13 +21065,13 @@
         <v>1055</v>
       </c>
       <c r="AF79" s="8">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG79" s="8">
-        <v>70662</v>
+        <v>70652</v>
       </c>
       <c r="AH79" s="8">
-        <v>24785</v>
+        <v>24784</v>
       </c>
       <c r="AI79" s="8">
         <v>7214</v>
@@ -20817,7 +21080,7 @@
         <v>2586</v>
       </c>
       <c r="AK79" s="8">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="AL79" s="8">
         <v>5225</v>
@@ -20829,7 +21092,7 @@
         <v>1390</v>
       </c>
       <c r="AO79" s="8">
-        <v>4881</v>
+        <v>4882</v>
       </c>
       <c r="AP79" s="8">
         <v>4585</v>
@@ -20838,7 +21101,7 @@
         <v>896</v>
       </c>
       <c r="AR79" s="8">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="AS79" s="8">
         <v>2901</v>
@@ -20853,7 +21116,7 @@
         <v>742</v>
       </c>
       <c r="AW79" s="8">
-        <v>68609</v>
+        <v>68607</v>
       </c>
     </row>
     <row r="80" spans="1:49" x14ac:dyDescent="0.2">
@@ -20909,28 +21172,28 @@
         <v>71287</v>
       </c>
       <c r="R80" s="8">
-        <v>23579</v>
+        <v>23585</v>
       </c>
       <c r="S80" s="8">
-        <v>6806</v>
+        <v>6807</v>
       </c>
       <c r="T80" s="8">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="U80" s="8">
         <v>4186</v>
       </c>
       <c r="V80" s="8">
-        <v>5162</v>
+        <v>5163</v>
       </c>
       <c r="W80" s="8">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="X80" s="8">
         <v>1436</v>
       </c>
       <c r="Y80" s="8">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="Z80" s="8">
         <v>4319</v>
@@ -20951,13 +21214,13 @@
         <v>1049</v>
       </c>
       <c r="AF80" s="8">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AG80" s="8">
-        <v>66567</v>
+        <v>66578</v>
       </c>
       <c r="AH80" s="8">
-        <v>23357</v>
+        <v>23360</v>
       </c>
       <c r="AI80" s="8">
         <v>6777</v>
@@ -20972,7 +21235,7 @@
         <v>5244</v>
       </c>
       <c r="AM80" s="8">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="AN80" s="8">
         <v>1440</v>
@@ -21002,7 +21265,7 @@
         <v>666</v>
       </c>
       <c r="AW80" s="8">
-        <v>67059</v>
+        <v>67064</v>
       </c>
     </row>
     <row r="81" spans="1:49" x14ac:dyDescent="0.2">
@@ -21058,7 +21321,7 @@
         <v>57399</v>
       </c>
       <c r="R81" s="8">
-        <v>19671</v>
+        <v>19679</v>
       </c>
       <c r="S81" s="8">
         <v>6553</v>
@@ -21067,7 +21330,7 @@
         <v>2681</v>
       </c>
       <c r="U81" s="8">
-        <v>3705</v>
+        <v>3707</v>
       </c>
       <c r="V81" s="8">
         <v>5080</v>
@@ -21076,7 +21339,7 @@
         <v>3980</v>
       </c>
       <c r="X81" s="8">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="Y81" s="8">
         <v>5001</v>
@@ -21100,13 +21363,13 @@
         <v>925</v>
       </c>
       <c r="AF81" s="8">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG81" s="8">
-        <v>62971</v>
+        <v>62988</v>
       </c>
       <c r="AH81" s="8">
-        <v>21298</v>
+        <v>21300</v>
       </c>
       <c r="AI81" s="8">
         <v>6454</v>
@@ -21115,7 +21378,7 @@
         <v>2622</v>
       </c>
       <c r="AK81" s="8">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="AL81" s="8">
         <v>5138</v>
@@ -21127,7 +21390,7 @@
         <v>1447</v>
       </c>
       <c r="AO81" s="8">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="AP81" s="8">
         <v>4484</v>
@@ -21142,16 +21405,16 @@
         <v>3083</v>
       </c>
       <c r="AT81" s="8">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AU81" s="8">
         <v>953</v>
       </c>
       <c r="AV81" s="8">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AW81" s="8">
-        <v>64680</v>
+        <v>64683</v>
       </c>
     </row>
     <row r="82" spans="1:49" x14ac:dyDescent="0.2">
@@ -21207,58 +21470,58 @@
         <v>63214</v>
       </c>
       <c r="R82" s="8">
-        <v>20966</v>
+        <v>20958</v>
       </c>
       <c r="S82" s="8">
-        <v>6074</v>
+        <v>6073</v>
       </c>
       <c r="T82" s="8">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="U82" s="8">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="V82" s="8">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="W82" s="8">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="X82" s="8">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Y82" s="8">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="Z82" s="8">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="AA82" s="8">
         <v>1226</v>
       </c>
       <c r="AB82" s="8">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="AC82" s="8">
         <v>3358</v>
       </c>
       <c r="AD82" s="8">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AE82" s="8">
         <v>896</v>
       </c>
       <c r="AF82" s="8">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AG82" s="8">
-        <v>64663</v>
+        <v>64644</v>
       </c>
       <c r="AH82" s="8">
-        <v>19476</v>
+        <v>19472</v>
       </c>
       <c r="AI82" s="8">
-        <v>6265</v>
+        <v>6264</v>
       </c>
       <c r="AJ82" s="8">
         <v>2595</v>
@@ -21270,7 +21533,7 @@
         <v>4922</v>
       </c>
       <c r="AM82" s="8">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="AN82" s="8">
         <v>1427</v>
@@ -21300,7 +21563,7 @@
         <v>637</v>
       </c>
       <c r="AW82" s="8">
-        <v>62987</v>
+        <v>62979</v>
       </c>
     </row>
     <row r="83" spans="1:49" x14ac:dyDescent="0.2">
@@ -21356,28 +21619,28 @@
         <v>64285</v>
       </c>
       <c r="R83" s="8">
-        <v>17926</v>
+        <v>17915</v>
       </c>
       <c r="S83" s="8">
-        <v>6281</v>
+        <v>6280</v>
       </c>
       <c r="T83" s="8">
         <v>2528</v>
       </c>
       <c r="U83" s="8">
-        <v>4199</v>
+        <v>4194</v>
       </c>
       <c r="V83" s="8">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="W83" s="8">
         <v>3791</v>
       </c>
       <c r="X83" s="8">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="Y83" s="8">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="Z83" s="8">
         <v>4580</v>
@@ -21386,25 +21649,25 @@
         <v>1344</v>
       </c>
       <c r="AB83" s="8">
-        <v>4214</v>
+        <v>4217</v>
       </c>
       <c r="AC83" s="8">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="AD83" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE83" s="8">
         <v>837</v>
       </c>
       <c r="AF83" s="8">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG83" s="8">
-        <v>61745</v>
+        <v>61729</v>
       </c>
       <c r="AH83" s="8">
-        <v>18256</v>
+        <v>18255</v>
       </c>
       <c r="AI83" s="8">
         <v>6197</v>
@@ -21413,10 +21676,10 @@
         <v>2610</v>
       </c>
       <c r="AK83" s="8">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="AL83" s="8">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="AM83" s="8">
         <v>3914</v>
@@ -21425,16 +21688,16 @@
         <v>1399</v>
       </c>
       <c r="AO83" s="8">
-        <v>5232</v>
+        <v>5233</v>
       </c>
       <c r="AP83" s="8">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="AQ83" s="8">
         <v>1388</v>
       </c>
       <c r="AR83" s="8">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="AS83" s="8">
         <v>3720</v>
@@ -21446,7 +21709,7 @@
         <v>857</v>
       </c>
       <c r="AV83" s="8">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AW83" s="8">
         <v>62232</v>
@@ -21505,43 +21768,43 @@
         <v>65848</v>
       </c>
       <c r="R84" s="8">
-        <v>17182</v>
+        <v>17192</v>
       </c>
       <c r="S84" s="8">
-        <v>6252</v>
+        <v>6254</v>
       </c>
       <c r="T84" s="8">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="U84" s="8">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="V84" s="8">
-        <v>4705</v>
+        <v>4707</v>
       </c>
       <c r="W84" s="8">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="X84" s="8">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="Y84" s="8">
         <v>5253</v>
       </c>
       <c r="Z84" s="8">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="AA84" s="8">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="AB84" s="8">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="AC84" s="8">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="AD84" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AE84" s="8">
         <v>876</v>
@@ -21550,13 +21813,13 @@
         <v>643</v>
       </c>
       <c r="AG84" s="8">
-        <v>61650</v>
+        <v>61669</v>
       </c>
       <c r="AH84" s="8">
-        <v>17824</v>
+        <v>17828</v>
       </c>
       <c r="AI84" s="8">
-        <v>6212</v>
+        <v>6213</v>
       </c>
       <c r="AJ84" s="8">
         <v>2623</v>
@@ -21565,7 +21828,7 @@
         <v>4222</v>
       </c>
       <c r="AL84" s="8">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="AM84" s="8">
         <v>3946</v>
@@ -21583,10 +21846,10 @@
         <v>1285</v>
       </c>
       <c r="AR84" s="8">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="AS84" s="8">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="AT84" s="8">
         <v>349</v>
@@ -21598,7 +21861,7 @@
         <v>668</v>
       </c>
       <c r="AW84" s="8">
-        <v>62071</v>
+        <v>62081</v>
       </c>
     </row>
     <row r="85" spans="1:49" x14ac:dyDescent="0.2">
@@ -21654,73 +21917,73 @@
         <v>57758</v>
       </c>
       <c r="R85" s="8">
-        <v>18691</v>
+        <v>18711</v>
       </c>
       <c r="S85" s="8">
-        <v>6179</v>
+        <v>6182</v>
       </c>
       <c r="T85" s="8">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="U85" s="8">
-        <v>4367</v>
+        <v>4373</v>
       </c>
       <c r="V85" s="8">
-        <v>4906</v>
+        <v>4908</v>
       </c>
       <c r="W85" s="8">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="X85" s="8">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Y85" s="8">
-        <v>5367</v>
+        <v>5369</v>
       </c>
       <c r="Z85" s="8">
-        <v>4610</v>
+        <v>4612</v>
       </c>
       <c r="AA85" s="8">
         <v>882</v>
       </c>
       <c r="AB85" s="8">
-        <v>4356</v>
+        <v>4358</v>
       </c>
       <c r="AC85" s="8">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="AD85" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE85" s="8">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF85" s="8">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AG85" s="8">
-        <v>63031</v>
+        <v>63075</v>
       </c>
       <c r="AH85" s="8">
-        <v>18568</v>
+        <v>18570</v>
       </c>
       <c r="AI85" s="8">
-        <v>6208</v>
+        <v>6209</v>
       </c>
       <c r="AJ85" s="8">
         <v>2663</v>
       </c>
       <c r="AK85" s="8">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="AL85" s="8">
         <v>4740</v>
       </c>
       <c r="AM85" s="8">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="AN85" s="8">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="AO85" s="8">
         <v>5283</v>
@@ -21744,10 +22007,10 @@
         <v>846</v>
       </c>
       <c r="AV85" s="8">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW85" s="8">
-        <v>63025</v>
+        <v>63028</v>
       </c>
     </row>
     <row r="86" spans="1:49" x14ac:dyDescent="0.2">
@@ -21803,91 +22066,91 @@
         <v>63436</v>
       </c>
       <c r="R86" s="8">
-        <v>20641</v>
+        <v>20614</v>
       </c>
       <c r="S86" s="8">
-        <v>6185</v>
+        <v>6179</v>
       </c>
       <c r="T86" s="8">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="U86" s="8">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="V86" s="8">
-        <v>4856</v>
+        <v>4851</v>
       </c>
       <c r="W86" s="8">
-        <v>4110</v>
+        <v>4106</v>
       </c>
       <c r="X86" s="8">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Y86" s="8">
-        <v>5133</v>
+        <v>5127</v>
       </c>
       <c r="Z86" s="8">
-        <v>4776</v>
+        <v>4772</v>
       </c>
       <c r="AA86" s="8">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AB86" s="8">
-        <v>4167</v>
+        <v>4161</v>
       </c>
       <c r="AC86" s="8">
-        <v>3987</v>
+        <v>3984</v>
       </c>
       <c r="AD86" s="8">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AE86" s="8">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF86" s="8">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AG86" s="8">
-        <v>65259</v>
+        <v>65191</v>
       </c>
       <c r="AH86" s="8">
-        <v>20518</v>
+        <v>20509</v>
       </c>
       <c r="AI86" s="8">
-        <v>6171</v>
+        <v>6170</v>
       </c>
       <c r="AJ86" s="8">
         <v>2741</v>
       </c>
       <c r="AK86" s="8">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="AL86" s="8">
-        <v>4756</v>
+        <v>4754</v>
       </c>
       <c r="AM86" s="8">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="AN86" s="8">
         <v>1279</v>
       </c>
       <c r="AO86" s="8">
-        <v>5176</v>
+        <v>5175</v>
       </c>
       <c r="AP86" s="8">
-        <v>4719</v>
+        <v>4718</v>
       </c>
       <c r="AQ86" s="8">
         <v>677</v>
       </c>
       <c r="AR86" s="8">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="AS86" s="8">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="AT86" s="8">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU86" s="8">
         <v>877</v>
@@ -21896,7 +22159,7 @@
         <v>765</v>
       </c>
       <c r="AW86" s="8">
-        <v>65120</v>
+        <v>65102</v>
       </c>
     </row>
     <row r="87" spans="1:49" x14ac:dyDescent="0.2">
@@ -21952,55 +22215,55 @@
         <v>70116</v>
       </c>
       <c r="R87" s="8">
-        <v>22285</v>
+        <v>22275</v>
       </c>
       <c r="S87" s="8">
-        <v>7367</v>
+        <v>7368</v>
       </c>
       <c r="T87" s="8">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="U87" s="8">
-        <v>4479</v>
+        <v>4473</v>
       </c>
       <c r="V87" s="8">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="W87" s="8">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="X87" s="8">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="Y87" s="8">
-        <v>4973</v>
+        <v>4978</v>
       </c>
       <c r="Z87" s="8">
         <v>4773</v>
       </c>
       <c r="AA87" s="8">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB87" s="8">
-        <v>4120</v>
+        <v>4126</v>
       </c>
       <c r="AC87" s="8">
         <v>3626</v>
       </c>
       <c r="AD87" s="8">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AE87" s="8">
         <v>1024</v>
       </c>
       <c r="AF87" s="8">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="AG87" s="8">
-        <v>67169</v>
+        <v>67168</v>
       </c>
       <c r="AH87" s="8">
-        <v>22418</v>
+        <v>22417</v>
       </c>
       <c r="AI87" s="8">
         <v>6180</v>
@@ -22009,16 +22272,16 @@
         <v>2886</v>
       </c>
       <c r="AK87" s="8">
-        <v>4615</v>
+        <v>4613</v>
       </c>
       <c r="AL87" s="8">
         <v>4843</v>
       </c>
       <c r="AM87" s="8">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="AN87" s="8">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="AO87" s="8">
         <v>4945</v>
@@ -22030,7 +22293,7 @@
         <v>525</v>
       </c>
       <c r="AR87" s="8">
-        <v>4206</v>
+        <v>4208</v>
       </c>
       <c r="AS87" s="8">
         <v>3773</v>
@@ -22042,7 +22305,7 @@
         <v>952</v>
       </c>
       <c r="AV87" s="8">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AW87" s="8">
         <v>67313</v>
@@ -22101,43 +22364,43 @@
         <v>73099</v>
       </c>
       <c r="R88" s="8">
-        <v>23539</v>
+        <v>23554</v>
       </c>
       <c r="S88" s="8">
-        <v>6266</v>
+        <v>6267</v>
       </c>
       <c r="T88" s="8">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="U88" s="8">
-        <v>4756</v>
+        <v>4755</v>
       </c>
       <c r="V88" s="8">
-        <v>5399</v>
+        <v>5401</v>
       </c>
       <c r="W88" s="8">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="X88" s="8">
         <v>1189</v>
       </c>
       <c r="Y88" s="8">
-        <v>4706</v>
+        <v>4704</v>
       </c>
       <c r="Z88" s="8">
-        <v>4894</v>
+        <v>4895</v>
       </c>
       <c r="AA88" s="8">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AB88" s="8">
-        <v>4315</v>
+        <v>4312</v>
       </c>
       <c r="AC88" s="8">
         <v>3651</v>
       </c>
       <c r="AD88" s="8">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AE88" s="8">
         <v>906</v>
@@ -22146,46 +22409,46 @@
         <v>800</v>
       </c>
       <c r="AG88" s="8">
-        <v>68580</v>
+        <v>68597</v>
       </c>
       <c r="AH88" s="8">
-        <v>23331</v>
+        <v>23343</v>
       </c>
       <c r="AI88" s="8">
-        <v>6236</v>
+        <v>6237</v>
       </c>
       <c r="AJ88" s="8">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="AK88" s="8">
-        <v>4645</v>
+        <v>4647</v>
       </c>
       <c r="AL88" s="8">
-        <v>5009</v>
+        <v>5010</v>
       </c>
       <c r="AM88" s="8">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="AN88" s="8">
         <v>1309</v>
       </c>
       <c r="AO88" s="8">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="AP88" s="8">
-        <v>4910</v>
+        <v>4911</v>
       </c>
       <c r="AQ88" s="8">
         <v>613</v>
       </c>
       <c r="AR88" s="8">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="AS88" s="8">
         <v>3583</v>
       </c>
       <c r="AT88" s="8">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AU88" s="8">
         <v>999</v>
@@ -22194,7 +22457,7 @@
         <v>829</v>
       </c>
       <c r="AW88" s="8">
-        <v>68576</v>
+        <v>68596</v>
       </c>
     </row>
     <row r="89" spans="1:49" x14ac:dyDescent="0.2">
@@ -22250,55 +22513,55 @@
         <v>63861</v>
       </c>
       <c r="R89" s="8">
-        <v>23355</v>
+        <v>23401</v>
       </c>
       <c r="S89" s="8">
-        <v>6344</v>
+        <v>6350</v>
       </c>
       <c r="T89" s="8">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="U89" s="8">
-        <v>4590</v>
+        <v>4601</v>
       </c>
       <c r="V89" s="8">
-        <v>5076</v>
+        <v>5081</v>
       </c>
       <c r="W89" s="8">
-        <v>4235</v>
+        <v>4238</v>
       </c>
       <c r="X89" s="8">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Y89" s="8">
-        <v>4399</v>
+        <v>4403</v>
       </c>
       <c r="Z89" s="8">
-        <v>4955</v>
+        <v>4960</v>
       </c>
       <c r="AA89" s="8">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AB89" s="8">
-        <v>4571</v>
+        <v>4574</v>
       </c>
       <c r="AC89" s="8">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="AD89" s="8">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AE89" s="8">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AF89" s="8">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="AG89" s="8">
-        <v>69266</v>
+        <v>69363</v>
       </c>
       <c r="AH89" s="8">
-        <v>22723</v>
+        <v>22731</v>
       </c>
       <c r="AI89" s="8">
         <v>6412</v>
@@ -22307,7 +22570,7 @@
         <v>3088</v>
       </c>
       <c r="AK89" s="8">
-        <v>4796</v>
+        <v>4799</v>
       </c>
       <c r="AL89" s="8">
         <v>5065</v>
@@ -22316,19 +22579,19 @@
         <v>4154</v>
       </c>
       <c r="AN89" s="8">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AO89" s="8">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="AP89" s="8">
         <v>4964</v>
       </c>
       <c r="AQ89" s="8">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AR89" s="8">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="AS89" s="8">
         <v>3315</v>
@@ -22340,10 +22603,10 @@
         <v>979</v>
       </c>
       <c r="AV89" s="8">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AW89" s="8">
-        <v>68133</v>
+        <v>68144</v>
       </c>
     </row>
     <row r="90" spans="1:49" x14ac:dyDescent="0.2">
@@ -22399,91 +22662,91 @@
         <v>63495</v>
       </c>
       <c r="R90" s="8">
-        <v>20648</v>
+        <v>20595</v>
       </c>
       <c r="S90" s="8">
-        <v>6619</v>
+        <v>6607</v>
       </c>
       <c r="T90" s="8">
-        <v>3008</v>
+        <v>3002</v>
       </c>
       <c r="U90" s="8">
         <v>5120</v>
       </c>
       <c r="V90" s="8">
-        <v>4833</v>
+        <v>4824</v>
       </c>
       <c r="W90" s="8">
-        <v>4066</v>
+        <v>4059</v>
       </c>
       <c r="X90" s="8">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="Y90" s="8">
-        <v>4462</v>
+        <v>4453</v>
       </c>
       <c r="Z90" s="8">
-        <v>5080</v>
+        <v>5073</v>
       </c>
       <c r="AA90" s="8">
         <v>929</v>
       </c>
       <c r="AB90" s="8">
-        <v>4526</v>
+        <v>4514</v>
       </c>
       <c r="AC90" s="8">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="AD90" s="8">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AE90" s="8">
         <v>814</v>
       </c>
       <c r="AF90" s="8">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AG90" s="8">
-        <v>65703</v>
+        <v>65573</v>
       </c>
       <c r="AH90" s="8">
-        <v>21098</v>
+        <v>21087</v>
       </c>
       <c r="AI90" s="8">
-        <v>6672</v>
+        <v>6669</v>
       </c>
       <c r="AJ90" s="8">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="AK90" s="8">
-        <v>4973</v>
+        <v>4971</v>
       </c>
       <c r="AL90" s="8">
-        <v>4910</v>
+        <v>4908</v>
       </c>
       <c r="AM90" s="8">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="AN90" s="8">
         <v>1589</v>
       </c>
       <c r="AO90" s="8">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="AP90" s="8">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="AQ90" s="8">
         <v>911</v>
       </c>
       <c r="AR90" s="8">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="AS90" s="8">
         <v>3037</v>
       </c>
       <c r="AT90" s="8">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AU90" s="8">
         <v>971</v>
@@ -22492,7 +22755,7 @@
         <v>665</v>
       </c>
       <c r="AW90" s="8">
-        <v>66476</v>
+        <v>66448</v>
       </c>
     </row>
     <row r="91" spans="1:49" x14ac:dyDescent="0.2">
@@ -22548,55 +22811,55 @@
         <v>67298</v>
       </c>
       <c r="R91" s="8">
-        <v>18939</v>
+        <v>18934</v>
       </c>
       <c r="S91" s="8">
-        <v>7026</v>
+        <v>7030</v>
       </c>
       <c r="T91" s="8">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="U91" s="8">
-        <v>5135</v>
+        <v>5120</v>
       </c>
       <c r="V91" s="8">
-        <v>4688</v>
+        <v>4690</v>
       </c>
       <c r="W91" s="8">
-        <v>4097</v>
+        <v>4099</v>
       </c>
       <c r="X91" s="8">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="Y91" s="8">
-        <v>4378</v>
+        <v>4384</v>
       </c>
       <c r="Z91" s="8">
         <v>4669</v>
       </c>
       <c r="AA91" s="8">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AB91" s="8">
-        <v>4495</v>
+        <v>4507</v>
       </c>
       <c r="AC91" s="8">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="AD91" s="8">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AE91" s="8">
         <v>1024</v>
       </c>
       <c r="AF91" s="8">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AG91" s="8">
-        <v>64382</v>
+        <v>64393</v>
       </c>
       <c r="AH91" s="8">
-        <v>19432</v>
+        <v>19427</v>
       </c>
       <c r="AI91" s="8">
         <v>6860</v>
@@ -22605,16 +22868,16 @@
         <v>2934</v>
       </c>
       <c r="AK91" s="8">
-        <v>5038</v>
+        <v>5034</v>
       </c>
       <c r="AL91" s="8">
         <v>4711</v>
       </c>
       <c r="AM91" s="8">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="AN91" s="8">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AO91" s="8">
         <v>4527</v>
@@ -22626,22 +22889,22 @@
         <v>931</v>
       </c>
       <c r="AR91" s="8">
-        <v>4526</v>
+        <v>4529</v>
       </c>
       <c r="AS91" s="8">
         <v>2807</v>
       </c>
       <c r="AT91" s="8">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AU91" s="8">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AV91" s="8">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AW91" s="8">
-        <v>64773</v>
+        <v>64769</v>
       </c>
     </row>
     <row r="92" spans="1:49" x14ac:dyDescent="0.2">
@@ -22697,43 +22960,43 @@
         <v>68459</v>
       </c>
       <c r="R92" s="8">
-        <v>18718</v>
+        <v>18733</v>
       </c>
       <c r="S92" s="8">
         <v>6836</v>
       </c>
       <c r="T92" s="8">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="U92" s="8">
         <v>4873</v>
       </c>
       <c r="V92" s="8">
-        <v>4797</v>
+        <v>4799</v>
       </c>
       <c r="W92" s="8">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="X92" s="8">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="Y92" s="8">
-        <v>4899</v>
+        <v>4895</v>
       </c>
       <c r="Z92" s="8">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="AA92" s="8">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AB92" s="8">
-        <v>4555</v>
+        <v>4552</v>
       </c>
       <c r="AC92" s="8">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AD92" s="8">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AE92" s="8">
         <v>1159</v>
@@ -22742,34 +23005,34 @@
         <v>583</v>
       </c>
       <c r="AG92" s="8">
-        <v>64330</v>
+        <v>64346</v>
       </c>
       <c r="AH92" s="8">
-        <v>18154</v>
+        <v>18166</v>
       </c>
       <c r="AI92" s="8">
-        <v>6833</v>
+        <v>6836</v>
       </c>
       <c r="AJ92" s="8">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="AK92" s="8">
-        <v>5090</v>
+        <v>5093</v>
       </c>
       <c r="AL92" s="8">
-        <v>4813</v>
+        <v>4815</v>
       </c>
       <c r="AM92" s="8">
-        <v>4261</v>
+        <v>4263</v>
       </c>
       <c r="AN92" s="8">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AO92" s="8">
-        <v>4748</v>
+        <v>4749</v>
       </c>
       <c r="AP92" s="8">
-        <v>4767</v>
+        <v>4769</v>
       </c>
       <c r="AQ92" s="8">
         <v>889</v>
@@ -22781,7 +23044,7 @@
         <v>2814</v>
       </c>
       <c r="AT92" s="8">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AU92" s="8">
         <v>1074</v>
@@ -22790,7 +23053,7 @@
         <v>587</v>
       </c>
       <c r="AW92" s="8">
-        <v>63933</v>
+        <v>63961</v>
       </c>
     </row>
     <row r="93" spans="1:49" x14ac:dyDescent="0.2">
@@ -22846,64 +23109,64 @@
         <v>59181</v>
       </c>
       <c r="R93" s="8">
-        <v>17298</v>
+        <v>17353</v>
       </c>
       <c r="S93" s="8">
-        <v>6701</v>
+        <v>6714</v>
       </c>
       <c r="T93" s="8">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="U93" s="8">
-        <v>5070</v>
+        <v>5090</v>
       </c>
       <c r="V93" s="8">
-        <v>5000</v>
+        <v>5009</v>
       </c>
       <c r="W93" s="8">
-        <v>4409</v>
+        <v>4417</v>
       </c>
       <c r="X93" s="8">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="Y93" s="8">
-        <v>4951</v>
+        <v>4961</v>
       </c>
       <c r="Z93" s="8">
-        <v>4719</v>
+        <v>4729</v>
       </c>
       <c r="AA93" s="8">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AB93" s="8">
-        <v>4872</v>
+        <v>4877</v>
       </c>
       <c r="AC93" s="8">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="AD93" s="8">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AE93" s="8">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AF93" s="8">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="AG93" s="8">
-        <v>63787</v>
+        <v>63935</v>
       </c>
       <c r="AH93" s="8">
-        <v>17361</v>
+        <v>17371</v>
       </c>
       <c r="AI93" s="8">
-        <v>6751</v>
+        <v>6753</v>
       </c>
       <c r="AJ93" s="8">
         <v>2880</v>
       </c>
       <c r="AK93" s="8">
-        <v>5044</v>
+        <v>5051</v>
       </c>
       <c r="AL93" s="8">
         <v>5106</v>
@@ -22912,34 +23175,34 @@
         <v>4459</v>
       </c>
       <c r="AN93" s="8">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AO93" s="8">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="AP93" s="8">
-        <v>4727</v>
+        <v>4729</v>
       </c>
       <c r="AQ93" s="8">
         <v>859</v>
       </c>
       <c r="AR93" s="8">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="AS93" s="8">
         <v>2967</v>
       </c>
       <c r="AT93" s="8">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AU93" s="8">
         <v>1093</v>
       </c>
       <c r="AV93" s="8">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AW93" s="8">
-        <v>64125</v>
+        <v>64142</v>
       </c>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.2">
@@ -22995,100 +23258,100 @@
         <v>61732</v>
       </c>
       <c r="R94" s="8">
-        <v>16162</v>
+        <v>16098</v>
       </c>
       <c r="S94" s="8">
-        <v>6622</v>
+        <v>6604</v>
       </c>
       <c r="T94" s="8">
-        <v>2981</v>
+        <v>2973</v>
       </c>
       <c r="U94" s="8">
         <v>5175</v>
       </c>
       <c r="V94" s="8">
-        <v>5561</v>
+        <v>5543</v>
       </c>
       <c r="W94" s="8">
-        <v>4646</v>
+        <v>4633</v>
       </c>
       <c r="X94" s="8">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="Y94" s="8">
-        <v>5132</v>
+        <v>5118</v>
       </c>
       <c r="Z94" s="8">
-        <v>4737</v>
+        <v>4728</v>
       </c>
       <c r="AA94" s="8">
         <v>655</v>
       </c>
       <c r="AB94" s="8">
-        <v>5052</v>
+        <v>5030</v>
       </c>
       <c r="AC94" s="8">
-        <v>3309</v>
+        <v>3305</v>
       </c>
       <c r="AD94" s="8">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="AE94" s="8">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AF94" s="8">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="AG94" s="8">
-        <v>64156</v>
+        <v>63965</v>
       </c>
       <c r="AH94" s="8">
-        <v>16867</v>
+        <v>16853</v>
       </c>
       <c r="AI94" s="8">
-        <v>6864</v>
+        <v>6860</v>
       </c>
       <c r="AJ94" s="8">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="AK94" s="8">
         <v>4876</v>
       </c>
       <c r="AL94" s="8">
-        <v>5402</v>
+        <v>5397</v>
       </c>
       <c r="AM94" s="8">
-        <v>4601</v>
+        <v>4598</v>
       </c>
       <c r="AN94" s="8">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="AO94" s="8">
-        <v>5186</v>
+        <v>5183</v>
       </c>
       <c r="AP94" s="8">
-        <v>4739</v>
+        <v>4736</v>
       </c>
       <c r="AQ94" s="8">
         <v>895</v>
       </c>
       <c r="AR94" s="8">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="AS94" s="8">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="AT94" s="8">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AU94" s="8">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AV94" s="8">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AW94" s="8">
-        <v>64497</v>
+        <v>64454</v>
       </c>
     </row>
     <row r="95" spans="1:49" x14ac:dyDescent="0.2">
@@ -23144,100 +23407,100 @@
         <v>67807</v>
       </c>
       <c r="R95" s="8">
-        <v>17063</v>
+        <v>17053</v>
       </c>
       <c r="S95" s="8">
-        <v>7222</v>
+        <v>7225</v>
       </c>
       <c r="T95" s="8">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="U95" s="8">
-        <v>4299</v>
+        <v>4277</v>
       </c>
       <c r="V95" s="8">
-        <v>5519</v>
+        <v>5520</v>
       </c>
       <c r="W95" s="8">
-        <v>4641</v>
+        <v>4644</v>
       </c>
       <c r="X95" s="8">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="Y95" s="8">
-        <v>5420</v>
+        <v>5424</v>
       </c>
       <c r="Z95" s="8">
-        <v>4663</v>
+        <v>4662</v>
       </c>
       <c r="AA95" s="8">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB95" s="8">
-        <v>5373</v>
+        <v>5398</v>
       </c>
       <c r="AC95" s="8">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="AD95" s="8">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AE95" s="8">
         <v>1012</v>
       </c>
       <c r="AF95" s="8">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AG95" s="8">
-        <v>64905</v>
+        <v>64913</v>
       </c>
       <c r="AH95" s="8">
-        <v>16141</v>
+        <v>16134</v>
       </c>
       <c r="AI95" s="8">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="AJ95" s="8">
         <v>2959</v>
       </c>
       <c r="AK95" s="8">
-        <v>4598</v>
+        <v>4591</v>
       </c>
       <c r="AL95" s="8">
-        <v>5491</v>
+        <v>5490</v>
       </c>
       <c r="AM95" s="8">
         <v>4597</v>
       </c>
       <c r="AN95" s="8">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="AO95" s="8">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="AP95" s="8">
-        <v>4708</v>
+        <v>4706</v>
       </c>
       <c r="AQ95" s="8">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AR95" s="8">
-        <v>5235</v>
+        <v>5239</v>
       </c>
       <c r="AS95" s="8">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="AT95" s="8">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AU95" s="8">
         <v>1010</v>
       </c>
       <c r="AV95" s="8">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AW95" s="8">
-        <v>63588</v>
+        <v>63574</v>
       </c>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.2">
@@ -23293,43 +23556,43 @@
         <v>66345</v>
       </c>
       <c r="R96" s="8">
-        <v>15701</v>
+        <v>15720</v>
       </c>
       <c r="S96" s="8">
         <v>7051</v>
       </c>
       <c r="T96" s="8">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="U96" s="8">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="V96" s="8">
-        <v>5354</v>
+        <v>5358</v>
       </c>
       <c r="W96" s="8">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="X96" s="8">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="Y96" s="8">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="Z96" s="8">
-        <v>4823</v>
+        <v>4821</v>
       </c>
       <c r="AA96" s="8">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="AB96" s="8">
-        <v>5207</v>
+        <v>5198</v>
       </c>
       <c r="AC96" s="8">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="AD96" s="8">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AE96" s="8">
         <v>1032</v>
@@ -23338,55 +23601,55 @@
         <v>496</v>
       </c>
       <c r="AG96" s="8">
-        <v>62390</v>
+        <v>62413</v>
       </c>
       <c r="AH96" s="8">
-        <v>15341</v>
+        <v>15354</v>
       </c>
       <c r="AI96" s="8">
-        <v>6815</v>
+        <v>6818</v>
       </c>
       <c r="AJ96" s="8">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="AK96" s="8">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="AL96" s="8">
-        <v>5368</v>
+        <v>5373</v>
       </c>
       <c r="AM96" s="8">
-        <v>4425</v>
+        <v>4427</v>
       </c>
       <c r="AN96" s="8">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AO96" s="8">
-        <v>5297</v>
+        <v>5300</v>
       </c>
       <c r="AP96" s="8">
-        <v>4715</v>
+        <v>4717</v>
       </c>
       <c r="AQ96" s="8">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AR96" s="8">
-        <v>5277</v>
+        <v>5278</v>
       </c>
       <c r="AS96" s="8">
         <v>2629</v>
       </c>
       <c r="AT96" s="8">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AU96" s="8">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AV96" s="8">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AW96" s="8">
-        <v>61947</v>
+        <v>61985</v>
       </c>
     </row>
     <row r="97" spans="1:49" x14ac:dyDescent="0.2">
@@ -23442,88 +23705,88 @@
         <v>54449</v>
       </c>
       <c r="R97" s="8">
-        <v>13664</v>
+        <v>13726</v>
       </c>
       <c r="S97" s="8">
-        <v>6132</v>
+        <v>6152</v>
       </c>
       <c r="T97" s="8">
-        <v>2742</v>
+        <v>2749</v>
       </c>
       <c r="U97" s="8">
-        <v>4205</v>
+        <v>4222</v>
       </c>
       <c r="V97" s="8">
-        <v>5155</v>
+        <v>5171</v>
       </c>
       <c r="W97" s="8">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="X97" s="8">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="Y97" s="8">
-        <v>5335</v>
+        <v>5352</v>
       </c>
       <c r="Z97" s="8">
-        <v>4508</v>
+        <v>4523</v>
       </c>
       <c r="AA97" s="8">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AB97" s="8">
-        <v>5273</v>
+        <v>5282</v>
       </c>
       <c r="AC97" s="8">
-        <v>2428</v>
+        <v>2435</v>
       </c>
       <c r="AD97" s="8">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AE97" s="8">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="AF97" s="8">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="AG97" s="8">
-        <v>58436</v>
+        <v>58626</v>
       </c>
       <c r="AH97" s="8">
-        <v>15117</v>
+        <v>15122</v>
       </c>
       <c r="AI97" s="8">
-        <v>6650</v>
+        <v>6653</v>
       </c>
       <c r="AJ97" s="8">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="AK97" s="8">
-        <v>3938</v>
+        <v>3947</v>
       </c>
       <c r="AL97" s="8">
-        <v>5228</v>
+        <v>5230</v>
       </c>
       <c r="AM97" s="8">
-        <v>4255</v>
+        <v>4257</v>
       </c>
       <c r="AN97" s="8">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="AO97" s="8">
-        <v>5374</v>
+        <v>5377</v>
       </c>
       <c r="AP97" s="8">
-        <v>4652</v>
+        <v>4655</v>
       </c>
       <c r="AQ97" s="8">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="AR97" s="8">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="AS97" s="8">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="AT97" s="8">
         <v>723</v>
@@ -23532,10 +23795,10 @@
         <v>1081</v>
       </c>
       <c r="AV97" s="8">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AW97" s="8">
-        <v>61155</v>
+        <v>61180</v>
       </c>
     </row>
     <row r="98" spans="1:49" x14ac:dyDescent="0.2">
@@ -23591,100 +23854,100 @@
         <v>61466</v>
       </c>
       <c r="R98" s="8">
-        <v>16630</v>
+        <v>16545</v>
       </c>
       <c r="S98" s="8">
-        <v>6938</v>
+        <v>6916</v>
       </c>
       <c r="T98" s="8">
-        <v>2997</v>
+        <v>2986</v>
       </c>
       <c r="U98" s="8">
-        <v>3633</v>
+        <v>3650</v>
       </c>
       <c r="V98" s="8">
-        <v>5214</v>
+        <v>5194</v>
       </c>
       <c r="W98" s="8">
-        <v>4122</v>
+        <v>4108</v>
       </c>
       <c r="X98" s="8">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="Y98" s="8">
-        <v>5524</v>
+        <v>5510</v>
       </c>
       <c r="Z98" s="8">
-        <v>4789</v>
+        <v>4779</v>
       </c>
       <c r="AA98" s="8">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="AB98" s="8">
-        <v>5499</v>
+        <v>5471</v>
       </c>
       <c r="AC98" s="8">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="AD98" s="8">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="AE98" s="8">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AF98" s="8">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AG98" s="8">
-        <v>63988</v>
+        <v>63763</v>
       </c>
       <c r="AH98" s="8">
-        <v>16108</v>
+        <v>16079</v>
       </c>
       <c r="AI98" s="8">
-        <v>6733</v>
+        <v>6727</v>
       </c>
       <c r="AJ98" s="8">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="AK98" s="8">
-        <v>3717</v>
+        <v>3719</v>
       </c>
       <c r="AL98" s="8">
-        <v>5225</v>
+        <v>5219</v>
       </c>
       <c r="AM98" s="8">
-        <v>4236</v>
+        <v>4233</v>
       </c>
       <c r="AN98" s="8">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="AO98" s="8">
-        <v>5554</v>
+        <v>5551</v>
       </c>
       <c r="AP98" s="8">
-        <v>4562</v>
+        <v>4559</v>
       </c>
       <c r="AQ98" s="8">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AR98" s="8">
-        <v>5424</v>
+        <v>5421</v>
       </c>
       <c r="AS98" s="8">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="AT98" s="8">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AU98" s="8">
         <v>1095</v>
       </c>
       <c r="AV98" s="8">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AW98" s="8">
-        <v>62308</v>
+        <v>62242</v>
       </c>
     </row>
     <row r="99" spans="1:49" x14ac:dyDescent="0.2">
@@ -23740,100 +24003,100 @@
         <v>68567</v>
       </c>
       <c r="R99" s="8">
-        <v>19245</v>
+        <v>19214</v>
       </c>
       <c r="S99" s="8">
-        <v>7139</v>
+        <v>7137</v>
       </c>
       <c r="T99" s="8">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="U99" s="8">
-        <v>3339</v>
+        <v>3303</v>
       </c>
       <c r="V99" s="8">
-        <v>5360</v>
+        <v>5354</v>
       </c>
       <c r="W99" s="8">
-        <v>4489</v>
+        <v>4491</v>
       </c>
       <c r="X99" s="8">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="Y99" s="8">
-        <v>5855</v>
+        <v>5850</v>
       </c>
       <c r="Z99" s="8">
-        <v>4275</v>
+        <v>4269</v>
       </c>
       <c r="AA99" s="8">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AB99" s="8">
-        <v>5642</v>
+        <v>5676</v>
       </c>
       <c r="AC99" s="8">
         <v>2618</v>
       </c>
       <c r="AD99" s="8">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AE99" s="8">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AF99" s="8">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="AG99" s="8">
-        <v>65701</v>
+        <v>65649</v>
       </c>
       <c r="AH99" s="8">
-        <v>18130</v>
+        <v>18120</v>
       </c>
       <c r="AI99" s="8">
-        <v>7155</v>
+        <v>7150</v>
       </c>
       <c r="AJ99" s="8">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="AK99" s="8">
-        <v>3805</v>
+        <v>3797</v>
       </c>
       <c r="AL99" s="8">
-        <v>5306</v>
+        <v>5303</v>
       </c>
       <c r="AM99" s="8">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="AN99" s="8">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="AO99" s="8">
-        <v>5750</v>
+        <v>5746</v>
       </c>
       <c r="AP99" s="8">
-        <v>4539</v>
+        <v>4535</v>
       </c>
       <c r="AQ99" s="8">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="AR99" s="8">
-        <v>5794</v>
+        <v>5799</v>
       </c>
       <c r="AS99" s="8">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="AT99" s="8">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AU99" s="8">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AV99" s="8">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AW99" s="8">
-        <v>65033</v>
+        <v>65005</v>
       </c>
     </row>
     <row r="100" spans="1:49" x14ac:dyDescent="0.2">
@@ -23889,100 +24152,100 @@
         <v>84540</v>
       </c>
       <c r="R100" s="8">
-        <v>27947</v>
+        <v>27999</v>
       </c>
       <c r="S100" s="8">
-        <v>7537</v>
+        <v>7534</v>
       </c>
       <c r="T100" s="8">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="U100" s="8">
-        <v>4553</v>
+        <v>4555</v>
       </c>
       <c r="V100" s="8">
-        <v>5371</v>
+        <v>5379</v>
       </c>
       <c r="W100" s="8">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="X100" s="8">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="Y100" s="8">
         <v>5765</v>
       </c>
       <c r="Z100" s="8">
-        <v>4734</v>
+        <v>4729</v>
       </c>
       <c r="AA100" s="8">
-        <v>1628</v>
+        <v>1647</v>
       </c>
       <c r="AB100" s="8">
-        <v>6173</v>
+        <v>6155</v>
       </c>
       <c r="AC100" s="8">
-        <v>4361</v>
+        <v>4349</v>
       </c>
       <c r="AD100" s="8">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="AE100" s="8">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AF100" s="8">
         <v>895</v>
       </c>
       <c r="AG100" s="8">
-        <v>79630</v>
+        <v>79694</v>
       </c>
       <c r="AH100" s="8">
-        <v>28014</v>
+        <v>28061</v>
       </c>
       <c r="AI100" s="8">
-        <v>7569</v>
+        <v>7574</v>
       </c>
       <c r="AJ100" s="8">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="AK100" s="8">
-        <v>4155</v>
+        <v>4159</v>
       </c>
       <c r="AL100" s="8">
-        <v>5373</v>
+        <v>5378</v>
       </c>
       <c r="AM100" s="8">
-        <v>4443</v>
+        <v>4446</v>
       </c>
       <c r="AN100" s="8">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="AO100" s="8">
-        <v>5787</v>
+        <v>5790</v>
       </c>
       <c r="AP100" s="8">
-        <v>4617</v>
+        <v>4619</v>
       </c>
       <c r="AQ100" s="8">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="AR100" s="8">
         <v>6269</v>
       </c>
       <c r="AS100" s="8">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="AT100" s="8">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AU100" s="8">
         <v>1041</v>
       </c>
       <c r="AV100" s="8">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AW100" s="8">
-        <v>79942</v>
+        <v>80025</v>
       </c>
     </row>
     <row r="101" spans="1:49" x14ac:dyDescent="0.2">
@@ -24038,100 +24301,100 @@
         <v>76403</v>
       </c>
       <c r="R101" s="8">
-        <v>29047</v>
+        <v>29237</v>
       </c>
       <c r="S101" s="8">
-        <v>7832</v>
+        <v>7865</v>
       </c>
       <c r="T101" s="8">
-        <v>3197</v>
+        <v>3207</v>
       </c>
       <c r="U101" s="8">
-        <v>4493</v>
+        <v>4520</v>
       </c>
       <c r="V101" s="8">
-        <v>5456</v>
+        <v>5474</v>
       </c>
       <c r="W101" s="8">
-        <v>4503</v>
+        <v>4517</v>
       </c>
       <c r="X101" s="8">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="Y101" s="8">
-        <v>5740</v>
+        <v>5758</v>
       </c>
       <c r="Z101" s="8">
-        <v>4783</v>
+        <v>4806</v>
       </c>
       <c r="AA101" s="8">
-        <v>1767</v>
+        <v>1749</v>
       </c>
       <c r="AB101" s="8">
-        <v>6864</v>
+        <v>6881</v>
       </c>
       <c r="AC101" s="8">
-        <v>4403</v>
+        <v>4427</v>
       </c>
       <c r="AD101" s="8">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="AE101" s="8">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="AF101" s="8">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="AG101" s="8">
-        <v>81884</v>
+        <v>82258</v>
       </c>
       <c r="AH101" s="8">
-        <v>27755</v>
+        <v>27794</v>
       </c>
       <c r="AI101" s="8">
-        <v>7651</v>
+        <v>7659</v>
       </c>
       <c r="AJ101" s="8">
         <v>3301</v>
       </c>
       <c r="AK101" s="8">
-        <v>4343</v>
+        <v>4357</v>
       </c>
       <c r="AL101" s="8">
-        <v>5398</v>
+        <v>5402</v>
       </c>
       <c r="AM101" s="8">
-        <v>4444</v>
+        <v>4446</v>
       </c>
       <c r="AN101" s="8">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="AO101" s="8">
-        <v>5714</v>
+        <v>5719</v>
       </c>
       <c r="AP101" s="8">
-        <v>4780</v>
+        <v>4786</v>
       </c>
       <c r="AQ101" s="8">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="AR101" s="8">
-        <v>6467</v>
+        <v>6466</v>
       </c>
       <c r="AS101" s="8">
-        <v>4339</v>
+        <v>4344</v>
       </c>
       <c r="AT101" s="8">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AU101" s="8">
         <v>1021</v>
       </c>
       <c r="AV101" s="8">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="AW101" s="8">
-        <v>79863</v>
+        <v>79941</v>
       </c>
     </row>
     <row r="102" spans="1:49" x14ac:dyDescent="0.2">
@@ -24187,100 +24450,100 @@
         <v>75130</v>
       </c>
       <c r="R102" s="8">
-        <v>25815</v>
+        <v>25647</v>
       </c>
       <c r="S102" s="8">
-        <v>7636</v>
+        <v>7617</v>
       </c>
       <c r="T102" s="8">
-        <v>3754</v>
+        <v>3736</v>
       </c>
       <c r="U102" s="8">
-        <v>4011</v>
+        <v>4045</v>
       </c>
       <c r="V102" s="8">
-        <v>5503</v>
+        <v>5485</v>
       </c>
       <c r="W102" s="8">
-        <v>4391</v>
+        <v>4376</v>
       </c>
       <c r="X102" s="8">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="Y102" s="8">
-        <v>5554</v>
+        <v>5550</v>
       </c>
       <c r="Z102" s="8">
-        <v>4844</v>
+        <v>4834</v>
       </c>
       <c r="AA102" s="8">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="AB102" s="8">
-        <v>6276</v>
+        <v>6239</v>
       </c>
       <c r="AC102" s="8">
-        <v>4227</v>
+        <v>4220</v>
       </c>
       <c r="AD102" s="8">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="AE102" s="8">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AF102" s="8">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="AG102" s="8">
-        <v>78039</v>
+        <v>77734</v>
       </c>
       <c r="AH102" s="8">
-        <v>26788</v>
+        <v>26740</v>
       </c>
       <c r="AI102" s="8">
-        <v>7633</v>
+        <v>7627</v>
       </c>
       <c r="AJ102" s="8">
-        <v>3601</v>
+        <v>3596</v>
       </c>
       <c r="AK102" s="8">
-        <v>4141</v>
+        <v>4145</v>
       </c>
       <c r="AL102" s="8">
-        <v>5627</v>
+        <v>5621</v>
       </c>
       <c r="AM102" s="8">
-        <v>4457</v>
+        <v>4453</v>
       </c>
       <c r="AN102" s="8">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="AO102" s="8">
-        <v>5640</v>
+        <v>5637</v>
       </c>
       <c r="AP102" s="8">
-        <v>4917</v>
+        <v>4913</v>
       </c>
       <c r="AQ102" s="8">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="AR102" s="8">
-        <v>6286</v>
+        <v>6281</v>
       </c>
       <c r="AS102" s="8">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="AT102" s="8">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AU102" s="8">
         <v>1012</v>
       </c>
       <c r="AV102" s="8">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AW102" s="8">
-        <v>79306</v>
+        <v>79214</v>
       </c>
     </row>
     <row r="103" spans="1:49" x14ac:dyDescent="0.2">
@@ -24336,100 +24599,100 @@
         <v>82182</v>
       </c>
       <c r="R103" s="8">
-        <v>25935</v>
+        <v>25848</v>
       </c>
       <c r="S103" s="8">
-        <v>7388</v>
+        <v>7373</v>
       </c>
       <c r="T103" s="8">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="U103" s="8">
-        <v>3843</v>
+        <v>3784</v>
       </c>
       <c r="V103" s="8">
-        <v>5891</v>
+        <v>5875</v>
       </c>
       <c r="W103" s="8">
-        <v>4566</v>
+        <v>4563</v>
       </c>
       <c r="X103" s="8">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="Y103" s="8">
-        <v>5702</v>
+        <v>5682</v>
       </c>
       <c r="Z103" s="8">
-        <v>5069</v>
+        <v>5059</v>
       </c>
       <c r="AA103" s="8">
-        <v>2249</v>
+        <v>2235</v>
       </c>
       <c r="AB103" s="8">
-        <v>5676</v>
+        <v>5718</v>
       </c>
       <c r="AC103" s="8">
-        <v>4602</v>
+        <v>4596</v>
       </c>
       <c r="AD103" s="8">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="AE103" s="8">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AF103" s="8">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="AG103" s="8">
-        <v>78739</v>
+        <v>78544</v>
       </c>
       <c r="AH103" s="8">
-        <v>26719</v>
+        <v>26703</v>
       </c>
       <c r="AI103" s="8">
-        <v>7724</v>
+        <v>7717</v>
       </c>
       <c r="AJ103" s="8">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="AK103" s="8">
-        <v>3956</v>
+        <v>3942</v>
       </c>
       <c r="AL103" s="8">
-        <v>6062</v>
+        <v>6058</v>
       </c>
       <c r="AM103" s="8">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="AN103" s="8">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="AO103" s="8">
-        <v>5639</v>
+        <v>5633</v>
       </c>
       <c r="AP103" s="8">
-        <v>4902</v>
+        <v>4896</v>
       </c>
       <c r="AQ103" s="8">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="AR103" s="8">
-        <v>6055</v>
+        <v>6059</v>
       </c>
       <c r="AS103" s="8">
-        <v>4319</v>
+        <v>4312</v>
       </c>
       <c r="AT103" s="8">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="AU103" s="8">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV103" s="8">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="AW103" s="8">
-        <v>80097</v>
+        <v>80041</v>
       </c>
     </row>
     <row r="104" spans="1:49" x14ac:dyDescent="0.2">
@@ -24485,100 +24748,100 @@
         <v>88388</v>
       </c>
       <c r="R104" s="8">
-        <v>28595</v>
+        <v>28674</v>
       </c>
       <c r="S104" s="8">
         <v>8211</v>
       </c>
       <c r="T104" s="8">
-        <v>4015</v>
+        <v>4020</v>
       </c>
       <c r="U104" s="8">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="V104" s="8">
-        <v>6830</v>
+        <v>6847</v>
       </c>
       <c r="W104" s="8">
-        <v>4882</v>
+        <v>4885</v>
       </c>
       <c r="X104" s="8">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="Y104" s="8">
-        <v>5670</v>
+        <v>5676</v>
       </c>
       <c r="Z104" s="8">
-        <v>4667</v>
+        <v>4651</v>
       </c>
       <c r="AA104" s="8">
-        <v>2114</v>
+        <v>2163</v>
       </c>
       <c r="AB104" s="8">
-        <v>6179</v>
+        <v>6151</v>
       </c>
       <c r="AC104" s="8">
-        <v>3929</v>
+        <v>3912</v>
       </c>
       <c r="AD104" s="8">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="AE104" s="8">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="AF104" s="8">
         <v>734</v>
       </c>
       <c r="AG104" s="8">
-        <v>83487</v>
+        <v>83614</v>
       </c>
       <c r="AH104" s="8">
-        <v>28043</v>
+        <v>28114</v>
       </c>
       <c r="AI104" s="8">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="AJ104" s="8">
-        <v>4046</v>
+        <v>4051</v>
       </c>
       <c r="AK104" s="8">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="AL104" s="8">
-        <v>6457</v>
+        <v>6466</v>
       </c>
       <c r="AM104" s="8">
-        <v>4860</v>
+        <v>4865</v>
       </c>
       <c r="AN104" s="8">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="AO104" s="8">
-        <v>5710</v>
+        <v>5713</v>
       </c>
       <c r="AP104" s="8">
-        <v>4812</v>
+        <v>4813</v>
       </c>
       <c r="AQ104" s="8">
-        <v>2065</v>
+        <v>2074</v>
       </c>
       <c r="AR104" s="8">
         <v>6083</v>
       </c>
       <c r="AS104" s="8">
-        <v>4189</v>
+        <v>4191</v>
       </c>
       <c r="AT104" s="8">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="AU104" s="8">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AV104" s="8">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AW104" s="8">
-        <v>82765</v>
+        <v>82889</v>
       </c>
     </row>
     <row r="105" spans="1:49" x14ac:dyDescent="0.2">
@@ -24634,100 +24897,100 @@
         <v>81201</v>
       </c>
       <c r="R105" s="8">
-        <v>30489</v>
+        <v>30812</v>
       </c>
       <c r="S105" s="8">
-        <v>8407</v>
+        <v>8452</v>
       </c>
       <c r="T105" s="8">
-        <v>4277</v>
+        <v>4300</v>
       </c>
       <c r="U105" s="8">
-        <v>4585</v>
+        <v>4617</v>
       </c>
       <c r="V105" s="8">
-        <v>6433</v>
+        <v>6457</v>
       </c>
       <c r="W105" s="8">
-        <v>5108</v>
+        <v>5131</v>
       </c>
       <c r="X105" s="8">
-        <v>1514</v>
+        <v>1497</v>
       </c>
       <c r="Y105" s="8">
-        <v>5789</v>
+        <v>5806</v>
       </c>
       <c r="Z105" s="8">
-        <v>4703</v>
+        <v>4747</v>
       </c>
       <c r="AA105" s="8">
-        <v>1811</v>
+        <v>1774</v>
       </c>
       <c r="AB105" s="8">
-        <v>6489</v>
+        <v>6516</v>
       </c>
       <c r="AC105" s="8">
-        <v>4141</v>
+        <v>4171</v>
       </c>
       <c r="AD105" s="8">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="AE105" s="8">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="AF105" s="8">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="AG105" s="8">
-        <v>87014</v>
+        <v>87590</v>
       </c>
       <c r="AH105" s="8">
-        <v>29878</v>
+        <v>29930</v>
       </c>
       <c r="AI105" s="8">
-        <v>8325</v>
+        <v>8339</v>
       </c>
       <c r="AJ105" s="8">
-        <v>4213</v>
+        <v>4216</v>
       </c>
       <c r="AK105" s="8">
-        <v>4275</v>
+        <v>4295</v>
       </c>
       <c r="AL105" s="8">
-        <v>6552</v>
+        <v>6560</v>
       </c>
       <c r="AM105" s="8">
-        <v>5043</v>
+        <v>5048</v>
       </c>
       <c r="AN105" s="8">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="AO105" s="8">
-        <v>5775</v>
+        <v>5784</v>
       </c>
       <c r="AP105" s="8">
-        <v>4642</v>
+        <v>4654</v>
       </c>
       <c r="AQ105" s="8">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="AR105" s="8">
-        <v>6290</v>
+        <v>6291</v>
       </c>
       <c r="AS105" s="8">
-        <v>3957</v>
+        <v>3968</v>
       </c>
       <c r="AT105" s="8">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AU105" s="8">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AV105" s="8">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="AW105" s="8">
-        <v>85579</v>
+        <v>85704</v>
       </c>
     </row>
     <row r="106" spans="1:49" x14ac:dyDescent="0.2">
@@ -24783,100 +25046,100 @@
         <v>83493</v>
       </c>
       <c r="R106" s="8">
-        <v>30941</v>
+        <v>30627</v>
       </c>
       <c r="S106" s="8">
-        <v>8343</v>
+        <v>8335</v>
       </c>
       <c r="T106" s="8">
-        <v>4360</v>
+        <v>4333</v>
       </c>
       <c r="U106" s="8">
-        <v>4250</v>
+        <v>4307</v>
       </c>
       <c r="V106" s="8">
-        <v>6369</v>
+        <v>6352</v>
       </c>
       <c r="W106" s="8">
-        <v>5085</v>
+        <v>5063</v>
       </c>
       <c r="X106" s="8">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="Y106" s="8">
-        <v>5932</v>
+        <v>5944</v>
       </c>
       <c r="Z106" s="8">
-        <v>4456</v>
+        <v>4444</v>
       </c>
       <c r="AA106" s="8">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="AB106" s="8">
-        <v>6242</v>
+        <v>6204</v>
       </c>
       <c r="AC106" s="8">
-        <v>3756</v>
+        <v>3776</v>
       </c>
       <c r="AD106" s="8">
-        <v>1314</v>
+        <v>1276</v>
       </c>
       <c r="AE106" s="8">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AF106" s="8">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="AG106" s="8">
-        <v>86385</v>
+        <v>85981</v>
       </c>
       <c r="AH106" s="8">
-        <v>31500</v>
+        <v>31406</v>
       </c>
       <c r="AI106" s="8">
-        <v>8332</v>
+        <v>8329</v>
       </c>
       <c r="AJ106" s="8">
-        <v>4429</v>
+        <v>4423</v>
       </c>
       <c r="AK106" s="8">
-        <v>4496</v>
+        <v>4502</v>
       </c>
       <c r="AL106" s="8">
-        <v>6347</v>
+        <v>6342</v>
       </c>
       <c r="AM106" s="8">
-        <v>5050</v>
+        <v>5045</v>
       </c>
       <c r="AN106" s="8">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="AO106" s="8">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="AP106" s="8">
         <v>4419</v>
       </c>
       <c r="AQ106" s="8">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="AR106" s="8">
-        <v>6396</v>
+        <v>6394</v>
       </c>
       <c r="AS106" s="8">
         <v>3751</v>
       </c>
       <c r="AT106" s="8">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="AU106" s="8">
         <v>1246</v>
       </c>
       <c r="AV106" s="8">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AW106" s="8">
-        <v>87340</v>
+        <v>87206</v>
       </c>
     </row>
     <row r="107" spans="1:49" x14ac:dyDescent="0.2">
@@ -24932,100 +25195,100 @@
         <v>92570</v>
       </c>
       <c r="R107" s="8">
-        <v>33285</v>
+        <v>33135</v>
       </c>
       <c r="S107" s="8">
-        <v>8084</v>
+        <v>8046</v>
       </c>
       <c r="T107" s="8">
-        <v>4624</v>
+        <v>4621</v>
       </c>
       <c r="U107" s="8">
-        <v>4645</v>
+        <v>4551</v>
       </c>
       <c r="V107" s="8">
-        <v>6074</v>
+        <v>6047</v>
       </c>
       <c r="W107" s="8">
-        <v>4893</v>
+        <v>4892</v>
       </c>
       <c r="X107" s="8">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="Y107" s="8">
-        <v>5826</v>
+        <v>5791</v>
       </c>
       <c r="Z107" s="8">
-        <v>4236</v>
+        <v>4232</v>
       </c>
       <c r="AA107" s="8">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="AB107" s="8">
-        <v>6326</v>
+        <v>6375</v>
       </c>
       <c r="AC107" s="8">
-        <v>3575</v>
+        <v>3526</v>
       </c>
       <c r="AD107" s="8">
-        <v>1334</v>
+        <v>1341</v>
       </c>
       <c r="AE107" s="8">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="AF107" s="8">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="AG107" s="8">
-        <v>88729</v>
+        <v>88326</v>
       </c>
       <c r="AH107" s="8">
-        <v>33476</v>
+        <v>33446</v>
       </c>
       <c r="AI107" s="8">
-        <v>8150</v>
+        <v>8136</v>
       </c>
       <c r="AJ107" s="8">
-        <v>4657</v>
+        <v>4655</v>
       </c>
       <c r="AK107" s="8">
-        <v>4715</v>
+        <v>4691</v>
       </c>
       <c r="AL107" s="8">
-        <v>6140</v>
+        <v>6131</v>
       </c>
       <c r="AM107" s="8">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="AN107" s="8">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="AO107" s="8">
-        <v>6024</v>
+        <v>6014</v>
       </c>
       <c r="AP107" s="8">
-        <v>4267</v>
+        <v>4256</v>
       </c>
       <c r="AQ107" s="8">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="AR107" s="8">
-        <v>6320</v>
+        <v>6325</v>
       </c>
       <c r="AS107" s="8">
-        <v>3778</v>
+        <v>3763</v>
       </c>
       <c r="AT107" s="8">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="AU107" s="8">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="AV107" s="8">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AW107" s="8">
-        <v>89357</v>
+        <v>89248</v>
       </c>
     </row>
     <row r="108" spans="1:49" x14ac:dyDescent="0.2">
@@ -25081,100 +25344,100 @@
         <v>98239</v>
       </c>
       <c r="R108" s="8">
-        <v>36601</v>
+        <v>36742</v>
       </c>
       <c r="S108" s="8">
-        <v>7925</v>
+        <v>7924</v>
       </c>
       <c r="T108" s="8">
-        <v>4862</v>
+        <v>4872</v>
       </c>
       <c r="U108" s="8">
-        <v>5175</v>
+        <v>5166</v>
       </c>
       <c r="V108" s="8">
-        <v>6088</v>
+        <v>6109</v>
       </c>
       <c r="W108" s="8">
-        <v>4925</v>
+        <v>4923</v>
       </c>
       <c r="X108" s="8">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="Y108" s="8">
-        <v>6332</v>
+        <v>6340</v>
       </c>
       <c r="Z108" s="8">
-        <v>4092</v>
+        <v>4045</v>
       </c>
       <c r="AA108" s="8">
-        <v>1531</v>
+        <v>1634</v>
       </c>
       <c r="AB108" s="8">
-        <v>6339</v>
+        <v>6301</v>
       </c>
       <c r="AC108" s="8">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="AD108" s="8">
-        <v>1159</v>
+        <v>1186</v>
       </c>
       <c r="AE108" s="8">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AF108" s="8">
         <v>868</v>
       </c>
       <c r="AG108" s="8">
-        <v>93082</v>
+        <v>93313</v>
       </c>
       <c r="AH108" s="8">
-        <v>36464</v>
+        <v>36586</v>
       </c>
       <c r="AI108" s="8">
-        <v>7971</v>
+        <v>7975</v>
       </c>
       <c r="AJ108" s="8">
-        <v>4779</v>
+        <v>4787</v>
       </c>
       <c r="AK108" s="8">
-        <v>4844</v>
+        <v>4841</v>
       </c>
       <c r="AL108" s="8">
-        <v>6122</v>
+        <v>6127</v>
       </c>
       <c r="AM108" s="8">
-        <v>4933</v>
+        <v>4937</v>
       </c>
       <c r="AN108" s="8">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="AO108" s="8">
-        <v>6322</v>
+        <v>6324</v>
       </c>
       <c r="AP108" s="8">
-        <v>4210</v>
+        <v>4206</v>
       </c>
       <c r="AQ108" s="8">
-        <v>1750</v>
+        <v>1766</v>
       </c>
       <c r="AR108" s="8">
-        <v>6228</v>
+        <v>6227</v>
       </c>
       <c r="AS108" s="8">
-        <v>4021</v>
+        <v>4026</v>
       </c>
       <c r="AT108" s="8">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="AU108" s="8">
         <v>1272</v>
       </c>
       <c r="AV108" s="8">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="AW108" s="8">
-        <v>92806</v>
+        <v>92981</v>
       </c>
     </row>
     <row r="109" spans="1:49" x14ac:dyDescent="0.2">
@@ -25230,100 +25493,100 @@
         <v>89969</v>
       </c>
       <c r="R109" s="8">
-        <v>39197</v>
+        <v>39769</v>
       </c>
       <c r="S109" s="8">
-        <v>7959</v>
+        <v>8004</v>
       </c>
       <c r="T109" s="8">
-        <v>4806</v>
+        <v>4834</v>
       </c>
       <c r="U109" s="8">
-        <v>4793</v>
+        <v>4845</v>
       </c>
       <c r="V109" s="8">
-        <v>6243</v>
+        <v>6259</v>
       </c>
       <c r="W109" s="8">
-        <v>5001</v>
+        <v>5033</v>
       </c>
       <c r="X109" s="8">
-        <v>1787</v>
+        <v>1763</v>
       </c>
       <c r="Y109" s="8">
-        <v>6669</v>
+        <v>6682</v>
       </c>
       <c r="Z109" s="8">
-        <v>4449</v>
+        <v>4523</v>
       </c>
       <c r="AA109" s="8">
-        <v>1739</v>
+        <v>1665</v>
       </c>
       <c r="AB109" s="8">
-        <v>5878</v>
+        <v>5910</v>
       </c>
       <c r="AC109" s="8">
-        <v>4529</v>
+        <v>4561</v>
       </c>
       <c r="AD109" s="8">
-        <v>1344</v>
+        <v>1360</v>
       </c>
       <c r="AE109" s="8">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="AF109" s="8">
-        <v>866</v>
+        <v>900</v>
       </c>
       <c r="AG109" s="8">
-        <v>96438</v>
+        <v>97290</v>
       </c>
       <c r="AH109" s="8">
-        <v>39745</v>
+        <v>39832</v>
       </c>
       <c r="AI109" s="8">
-        <v>7793</v>
+        <v>7812</v>
       </c>
       <c r="AJ109" s="8">
-        <v>4702</v>
+        <v>4709</v>
       </c>
       <c r="AK109" s="8">
-        <v>4963</v>
+        <v>4988</v>
       </c>
       <c r="AL109" s="8">
-        <v>6190</v>
+        <v>6199</v>
       </c>
       <c r="AM109" s="8">
-        <v>4997</v>
+        <v>5004</v>
       </c>
       <c r="AN109" s="8">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="AO109" s="8">
-        <v>6492</v>
+        <v>6506</v>
       </c>
       <c r="AP109" s="8">
-        <v>4292</v>
+        <v>4311</v>
       </c>
       <c r="AQ109" s="8">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="AR109" s="8">
-        <v>6022</v>
+        <v>6024</v>
       </c>
       <c r="AS109" s="8">
-        <v>4472</v>
+        <v>4492</v>
       </c>
       <c r="AT109" s="8">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="AU109" s="8">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="AV109" s="8">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="AW109" s="8">
-        <v>96556</v>
+        <v>96754</v>
       </c>
     </row>
     <row r="110" spans="1:49" x14ac:dyDescent="0.2">
@@ -25379,52 +25642,52 @@
         <v>96355</v>
       </c>
       <c r="R110" s="8">
-        <v>42707</v>
+        <v>42109</v>
       </c>
       <c r="S110" s="8">
-        <v>7534</v>
+        <v>7551</v>
       </c>
       <c r="T110" s="8">
-        <v>4378</v>
+        <v>4350</v>
       </c>
       <c r="U110" s="8">
-        <v>4863</v>
+        <v>4937</v>
       </c>
       <c r="V110" s="8">
-        <v>6273</v>
+        <v>6272</v>
       </c>
       <c r="W110" s="8">
-        <v>5129</v>
+        <v>5106</v>
       </c>
       <c r="X110" s="8">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="Y110" s="8">
-        <v>6475</v>
+        <v>6518</v>
       </c>
       <c r="Z110" s="8">
-        <v>4344</v>
+        <v>4333</v>
       </c>
       <c r="AA110" s="8">
-        <v>1523</v>
+        <v>1543</v>
       </c>
       <c r="AB110" s="8">
-        <v>5932</v>
+        <v>5896</v>
       </c>
       <c r="AC110" s="8">
-        <v>4781</v>
+        <v>4851</v>
       </c>
       <c r="AD110" s="8">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="AE110" s="8">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="AF110" s="8">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="AG110" s="8">
-        <v>99328</v>
+        <v>98772</v>
       </c>
       <c r="AH110" s="8"/>
       <c r="AI110" s="8"/>
@@ -25496,52 +25759,52 @@
         <v>102669</v>
       </c>
       <c r="R111" s="8">
-        <v>41886</v>
+        <v>41678</v>
       </c>
       <c r="S111" s="8">
-        <v>7651</v>
+        <v>7591</v>
       </c>
       <c r="T111" s="8">
-        <v>4394</v>
+        <v>4389</v>
       </c>
       <c r="U111" s="8">
-        <v>5603</v>
+        <v>5474</v>
       </c>
       <c r="V111" s="8">
-        <v>6338</v>
+        <v>6304</v>
       </c>
       <c r="W111" s="8">
         <v>5197</v>
       </c>
       <c r="X111" s="8">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="Y111" s="8">
-        <v>5947</v>
+        <v>5898</v>
       </c>
       <c r="Z111" s="8">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="AA111" s="8">
-        <v>1260</v>
+        <v>1184</v>
       </c>
       <c r="AB111" s="8">
-        <v>5205</v>
+        <v>5250</v>
       </c>
       <c r="AC111" s="8">
-        <v>5207</v>
+        <v>5073</v>
       </c>
       <c r="AD111" s="8">
-        <v>1361</v>
+        <v>1372</v>
       </c>
       <c r="AE111" s="8">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="AF111" s="8">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="AG111" s="8">
-        <v>98420</v>
+        <v>97768</v>
       </c>
       <c r="AH111" s="8"/>
       <c r="AI111" s="8"/>
@@ -25613,52 +25876,52 @@
         <v>101500</v>
       </c>
       <c r="R112" s="8">
-        <v>39468</v>
+        <v>39675</v>
       </c>
       <c r="S112" s="8">
-        <v>7915</v>
+        <v>7914</v>
       </c>
       <c r="T112" s="8">
-        <v>4567</v>
+        <v>4579</v>
       </c>
       <c r="U112" s="8">
-        <v>5366</v>
+        <v>5350</v>
       </c>
       <c r="V112" s="8">
-        <v>6328</v>
+        <v>6345</v>
       </c>
       <c r="W112" s="8">
-        <v>5335</v>
+        <v>5326</v>
       </c>
       <c r="X112" s="8">
-        <v>1871</v>
+        <v>1895</v>
       </c>
       <c r="Y112" s="8">
-        <v>6210</v>
+        <v>6211</v>
       </c>
       <c r="Z112" s="8">
-        <v>4739</v>
+        <v>4650</v>
       </c>
       <c r="AA112" s="8">
-        <v>769</v>
+        <v>929</v>
       </c>
       <c r="AB112" s="8">
-        <v>5411</v>
+        <v>5370</v>
       </c>
       <c r="AC112" s="8">
-        <v>5067</v>
+        <v>5090</v>
       </c>
       <c r="AD112" s="8">
-        <v>1351</v>
+        <v>1393</v>
       </c>
       <c r="AE112" s="8">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="AF112" s="8">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AG112" s="8">
-        <v>96424</v>
+        <v>96756</v>
       </c>
       <c r="AH112" s="8"/>
       <c r="AI112" s="8"/>
@@ -25730,52 +25993,52 @@
         <v>92306</v>
       </c>
       <c r="R113" s="8">
-        <v>40888</v>
+        <v>41676</v>
       </c>
       <c r="S113" s="8">
-        <v>8434</v>
+        <v>8494</v>
       </c>
       <c r="T113" s="8">
-        <v>4735</v>
+        <v>4767</v>
       </c>
       <c r="U113" s="8">
-        <v>5154</v>
+        <v>5226</v>
       </c>
       <c r="V113" s="8">
-        <v>6971</v>
+        <v>6991</v>
       </c>
       <c r="W113" s="8">
-        <v>5564</v>
+        <v>5616</v>
       </c>
       <c r="X113" s="8">
-        <v>1736</v>
+        <v>1709</v>
       </c>
       <c r="Y113" s="8">
-        <v>5720</v>
+        <v>5728</v>
       </c>
       <c r="Z113" s="8">
-        <v>4567</v>
+        <v>4682</v>
       </c>
       <c r="AA113" s="8">
-        <v>1148</v>
+        <v>1039</v>
       </c>
       <c r="AB113" s="8">
-        <v>5367</v>
+        <v>5406</v>
       </c>
       <c r="AC113" s="8">
-        <v>5394</v>
+        <v>5437</v>
       </c>
       <c r="AD113" s="8">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="AE113" s="8">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="AF113" s="8">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="AG113" s="8">
-        <v>98916</v>
+        <v>100073</v>
       </c>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8"/>
@@ -25847,52 +26110,52 @@
         <v>108986</v>
       </c>
       <c r="R114" s="8">
-        <v>38526</v>
+        <v>37685</v>
       </c>
       <c r="S114" s="8">
-        <v>9118</v>
+        <v>9139</v>
       </c>
       <c r="T114" s="8">
-        <v>4404</v>
+        <v>4366</v>
       </c>
       <c r="U114" s="8">
-        <v>7545</v>
+        <v>7656</v>
       </c>
       <c r="V114" s="8">
-        <v>7398</v>
+        <v>7394</v>
       </c>
       <c r="W114" s="8">
-        <v>7523</v>
+        <v>7463</v>
       </c>
       <c r="X114" s="8">
-        <v>3379</v>
+        <v>3357</v>
       </c>
       <c r="Y114" s="8">
-        <v>6388</v>
+        <v>6446</v>
       </c>
       <c r="Z114" s="8">
-        <v>4433</v>
+        <v>4412</v>
       </c>
       <c r="AA114" s="8">
-        <v>801</v>
+        <v>826</v>
       </c>
       <c r="AB114" s="8">
-        <v>5908</v>
+        <v>5857</v>
       </c>
       <c r="AC114" s="8">
-        <v>8166</v>
+        <v>8271</v>
       </c>
       <c r="AD114" s="8">
-        <v>2975</v>
+        <v>2886</v>
       </c>
       <c r="AE114" s="8">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="AF114" s="8">
-        <v>3425</v>
+        <v>3389</v>
       </c>
       <c r="AG114" s="8">
-        <v>112168</v>
+        <v>111320</v>
       </c>
       <c r="AH114" s="8"/>
       <c r="AI114" s="8"/>
@@ -25964,52 +26227,52 @@
         <v>121701</v>
       </c>
       <c r="R115" s="8">
-        <v>35095</v>
+        <v>34903</v>
       </c>
       <c r="S115" s="8">
-        <v>10273</v>
+        <v>10153</v>
       </c>
       <c r="T115" s="8">
-        <v>4356</v>
+        <v>4347</v>
       </c>
       <c r="U115" s="8">
-        <v>7824</v>
+        <v>7619</v>
       </c>
       <c r="V115" s="8">
-        <v>8571</v>
+        <v>8509</v>
       </c>
       <c r="W115" s="8">
-        <v>8805</v>
+        <v>8800</v>
       </c>
       <c r="X115" s="8">
-        <v>4524</v>
+        <v>4535</v>
       </c>
       <c r="Y115" s="8">
-        <v>6902</v>
+        <v>6827</v>
       </c>
       <c r="Z115" s="8">
-        <v>4593</v>
+        <v>4599</v>
       </c>
       <c r="AA115" s="8">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="AB115" s="8">
-        <v>6258</v>
+        <v>6314</v>
       </c>
       <c r="AC115" s="8">
-        <v>9404</v>
+        <v>9157</v>
       </c>
       <c r="AD115" s="8">
-        <v>3283</v>
+        <v>3292</v>
       </c>
       <c r="AE115" s="8">
-        <v>2491</v>
+        <v>2482</v>
       </c>
       <c r="AF115" s="8">
-        <v>3846</v>
+        <v>3816</v>
       </c>
       <c r="AG115" s="8">
-        <v>116663</v>
+        <v>115685</v>
       </c>
       <c r="AH115" s="8"/>
       <c r="AI115" s="8"/>
@@ -26081,52 +26344,52 @@
         <v>116786</v>
       </c>
       <c r="R116" s="8">
-        <v>40735</v>
+        <v>41064</v>
       </c>
       <c r="S116" s="8">
-        <v>9184</v>
+        <v>9188</v>
       </c>
       <c r="T116" s="8">
-        <v>4115</v>
+        <v>4132</v>
       </c>
       <c r="U116" s="8">
-        <v>6894</v>
+        <v>6867</v>
       </c>
       <c r="V116" s="8">
-        <v>8719</v>
+        <v>8740</v>
       </c>
       <c r="W116" s="8">
-        <v>7787</v>
+        <v>7766</v>
       </c>
       <c r="X116" s="8">
-        <v>2996</v>
+        <v>3041</v>
       </c>
       <c r="Y116" s="8">
-        <v>5132</v>
+        <v>5128</v>
       </c>
       <c r="Z116" s="8">
-        <v>5194</v>
+        <v>5063</v>
       </c>
       <c r="AA116" s="8">
-        <v>703</v>
+        <v>926</v>
       </c>
       <c r="AB116" s="8">
-        <v>6092</v>
+        <v>6039</v>
       </c>
       <c r="AC116" s="8">
-        <v>6791</v>
+        <v>6836</v>
       </c>
       <c r="AD116" s="8">
-        <v>2159</v>
+        <v>2212</v>
       </c>
       <c r="AE116" s="8">
         <v>1961</v>
       </c>
       <c r="AF116" s="8">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="AG116" s="8">
-        <v>111092</v>
+        <v>111591</v>
       </c>
       <c r="AH116" s="8"/>
       <c r="AI116" s="8"/>
@@ -26198,52 +26461,52 @@
         <v>103086</v>
       </c>
       <c r="R117" s="8">
-        <v>46711</v>
+        <v>47750</v>
       </c>
       <c r="S117" s="8">
-        <v>9647</v>
+        <v>9738</v>
       </c>
       <c r="T117" s="8">
-        <v>4163</v>
+        <v>4191</v>
       </c>
       <c r="U117" s="8">
-        <v>6828</v>
+        <v>6945</v>
       </c>
       <c r="V117" s="8">
-        <v>8784</v>
+        <v>8812</v>
       </c>
       <c r="W117" s="8">
-        <v>6051</v>
+        <v>6122</v>
       </c>
       <c r="X117" s="8">
-        <v>1841</v>
+        <v>1809</v>
       </c>
       <c r="Y117" s="8">
-        <v>4810</v>
+        <v>4815</v>
       </c>
       <c r="Z117" s="8">
-        <v>4149</v>
+        <v>4299</v>
       </c>
       <c r="AA117" s="8">
-        <v>1032</v>
+        <v>882</v>
       </c>
       <c r="AB117" s="8">
-        <v>6040</v>
+        <v>6096</v>
       </c>
       <c r="AC117" s="8">
-        <v>6133</v>
+        <v>6202</v>
       </c>
       <c r="AD117" s="8">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="AE117" s="8">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="AF117" s="8">
-        <v>1244</v>
+        <v>1295</v>
       </c>
       <c r="AG117" s="8">
-        <v>110452</v>
+        <v>112007</v>
       </c>
       <c r="AH117" s="8"/>
       <c r="AI117" s="8"/>
@@ -26315,52 +26578,52 @@
         <v>114977</v>
       </c>
       <c r="R118" s="8">
-        <v>55325</v>
+        <v>54022</v>
       </c>
       <c r="S118" s="8">
-        <v>9332</v>
+        <v>9379</v>
       </c>
       <c r="T118" s="8">
-        <v>4102</v>
+        <v>4072</v>
       </c>
       <c r="U118" s="8">
-        <v>5969</v>
+        <v>6086</v>
       </c>
       <c r="V118" s="8">
-        <v>8389</v>
+        <v>8416</v>
       </c>
       <c r="W118" s="8">
-        <v>5637</v>
+        <v>5603</v>
       </c>
       <c r="X118" s="8">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="Y118" s="8">
-        <v>5244</v>
+        <v>5320</v>
       </c>
       <c r="Z118" s="8">
-        <v>4382</v>
+        <v>4367</v>
       </c>
       <c r="AA118" s="8">
-        <v>1060</v>
+        <v>1096</v>
       </c>
       <c r="AB118" s="8">
-        <v>5825</v>
+        <v>5781</v>
       </c>
       <c r="AC118" s="8">
-        <v>6392</v>
+        <v>6567</v>
       </c>
       <c r="AD118" s="8">
-        <v>2141</v>
+        <v>2042</v>
       </c>
       <c r="AE118" s="8">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AF118" s="8">
-        <v>1773</v>
+        <v>1745</v>
       </c>
       <c r="AG118" s="8">
-        <v>118239</v>
+        <v>117152</v>
       </c>
       <c r="AH118" s="8"/>
       <c r="AI118" s="8"/>
@@ -26432,52 +26695,52 @@
         <v>128287</v>
       </c>
       <c r="R119" s="8">
-        <v>58719</v>
+        <v>58419</v>
       </c>
       <c r="S119" s="8">
-        <v>10224</v>
+        <v>10083</v>
       </c>
       <c r="T119" s="8">
-        <v>3915</v>
+        <v>3907</v>
       </c>
       <c r="U119" s="8">
-        <v>7072</v>
+        <v>6859</v>
       </c>
       <c r="V119" s="8">
-        <v>8577</v>
+        <v>8521</v>
       </c>
       <c r="W119" s="8">
-        <v>5506</v>
+        <v>5503</v>
       </c>
       <c r="X119" s="8">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="Y119" s="8">
-        <v>4590</v>
+        <v>4538</v>
       </c>
       <c r="Z119" s="8">
-        <v>4294</v>
+        <v>4306</v>
       </c>
       <c r="AA119" s="8">
-        <v>1042</v>
+        <v>914</v>
       </c>
       <c r="AB119" s="8">
-        <v>5848</v>
+        <v>5907</v>
       </c>
       <c r="AC119" s="8">
-        <v>7439</v>
+        <v>7143</v>
       </c>
       <c r="AD119" s="8">
-        <v>1609</v>
+        <v>1628</v>
       </c>
       <c r="AE119" s="8">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="AF119" s="8">
-        <v>1691</v>
+        <v>1667</v>
       </c>
       <c r="AG119" s="8">
-        <v>122976</v>
+        <v>121846</v>
       </c>
       <c r="AH119" s="8"/>
       <c r="AI119" s="8"/>
@@ -26501,100 +26764,100 @@
         <v>44531</v>
       </c>
       <c r="B120" s="8">
-        <v>54812</v>
+        <v>55287</v>
       </c>
       <c r="C120" s="8">
-        <v>14095</v>
+        <v>13975</v>
       </c>
       <c r="D120" s="8">
-        <v>3727</v>
+        <v>3667</v>
       </c>
       <c r="E120" s="8">
-        <v>7771</v>
+        <v>7830</v>
       </c>
       <c r="F120" s="8">
-        <v>9312</v>
+        <v>9317</v>
       </c>
       <c r="G120" s="8">
-        <v>7812</v>
+        <v>7735</v>
       </c>
       <c r="H120" s="8">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I120" s="8">
-        <v>6536</v>
+        <v>6674</v>
       </c>
       <c r="J120" s="8">
-        <v>4953</v>
+        <v>5080</v>
       </c>
       <c r="K120" s="8">
-        <v>1812</v>
+        <v>1855</v>
       </c>
       <c r="L120" s="8">
-        <v>7456</v>
+        <v>7759</v>
       </c>
       <c r="M120" s="8">
-        <v>7976</v>
+        <v>8347</v>
       </c>
       <c r="N120" s="8">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="O120" s="8">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="P120" s="8">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="Q120" s="8">
-        <v>131840</v>
+        <v>133096</v>
       </c>
       <c r="R120" s="8">
-        <v>55386</v>
+        <v>56393</v>
       </c>
       <c r="S120" s="8">
-        <v>12609</v>
+        <v>12514</v>
       </c>
       <c r="T120" s="8">
-        <v>4002</v>
+        <v>3956</v>
       </c>
       <c r="U120" s="8">
-        <v>7005</v>
+        <v>7022</v>
       </c>
       <c r="V120" s="8">
-        <v>8576</v>
+        <v>8586</v>
       </c>
       <c r="W120" s="8">
-        <v>5643</v>
+        <v>5572</v>
       </c>
       <c r="X120" s="8">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="Y120" s="8">
-        <v>5811</v>
+        <v>5925</v>
       </c>
       <c r="Z120" s="8">
-        <v>4711</v>
+        <v>4683</v>
       </c>
       <c r="AA120" s="8">
-        <v>1847</v>
+        <v>2147</v>
       </c>
       <c r="AB120" s="8">
-        <v>6971</v>
+        <v>7180</v>
       </c>
       <c r="AC120" s="8">
-        <v>7571</v>
+        <v>7986</v>
       </c>
       <c r="AD120" s="8">
-        <v>1355</v>
+        <v>1413</v>
       </c>
       <c r="AE120" s="8">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="AF120" s="8">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="AG120" s="8">
-        <v>125496</v>
+        <v>127398</v>
       </c>
       <c r="AH120" s="8"/>
       <c r="AI120" s="8"/>
@@ -26612,6 +26875,123 @@
       <c r="AU120" s="8"/>
       <c r="AV120" s="8"/>
       <c r="AW120" s="8"/>
+    </row>
+    <row r="121" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B121" s="8">
+        <v>67921</v>
+      </c>
+      <c r="C121" s="8">
+        <v>9744</v>
+      </c>
+      <c r="D121" s="8">
+        <v>3967</v>
+      </c>
+      <c r="E121" s="8">
+        <v>6105</v>
+      </c>
+      <c r="F121" s="8">
+        <v>8537</v>
+      </c>
+      <c r="G121" s="8">
+        <v>5754</v>
+      </c>
+      <c r="H121" s="8">
+        <v>642</v>
+      </c>
+      <c r="I121" s="8">
+        <v>5677</v>
+      </c>
+      <c r="J121" s="8">
+        <v>4613</v>
+      </c>
+      <c r="K121" s="8">
+        <v>1396</v>
+      </c>
+      <c r="L121" s="8">
+        <v>6259</v>
+      </c>
+      <c r="M121" s="8">
+        <v>4408</v>
+      </c>
+      <c r="N121" s="8">
+        <v>1129</v>
+      </c>
+      <c r="O121" s="8">
+        <v>954</v>
+      </c>
+      <c r="P121" s="8">
+        <v>1951</v>
+      </c>
+      <c r="Q121" s="8">
+        <v>129056</v>
+      </c>
+      <c r="R121" s="8">
+        <v>70676</v>
+      </c>
+      <c r="S121" s="8">
+        <v>11708</v>
+      </c>
+      <c r="T121" s="8">
+        <v>4202</v>
+      </c>
+      <c r="U121" s="8">
+        <v>7423</v>
+      </c>
+      <c r="V121" s="8">
+        <v>9755</v>
+      </c>
+      <c r="W121" s="8">
+        <v>6981</v>
+      </c>
+      <c r="X121" s="8">
+        <v>678</v>
+      </c>
+      <c r="Y121" s="8">
+        <v>6141</v>
+      </c>
+      <c r="Z121" s="8">
+        <v>4900</v>
+      </c>
+      <c r="AA121" s="8">
+        <v>1580</v>
+      </c>
+      <c r="AB121" s="8">
+        <v>6950</v>
+      </c>
+      <c r="AC121" s="8">
+        <v>5202</v>
+      </c>
+      <c r="AD121" s="8">
+        <v>1135</v>
+      </c>
+      <c r="AE121" s="8">
+        <v>1019</v>
+      </c>
+      <c r="AF121" s="8">
+        <v>2031</v>
+      </c>
+      <c r="AG121" s="8">
+        <v>140380</v>
+      </c>
+      <c r="AH121" s="8"/>
+      <c r="AI121" s="8"/>
+      <c r="AJ121" s="8"/>
+      <c r="AK121" s="8"/>
+      <c r="AL121" s="8"/>
+      <c r="AM121" s="8"/>
+      <c r="AN121" s="8"/>
+      <c r="AO121" s="8"/>
+      <c r="AP121" s="8"/>
+      <c r="AQ121" s="8"/>
+      <c r="AR121" s="8"/>
+      <c r="AS121" s="8"/>
+      <c r="AT121" s="8"/>
+      <c r="AU121" s="8"/>
+      <c r="AV121" s="8"/>
+      <c r="AW121" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
